--- a/resources/implementation_names.xlsx
+++ b/resources/implementation_names.xlsx
@@ -46,6 +46,21 @@
     <t>Activiti</t>
   </si>
   <si>
+    <t>skywalking</t>
+  </si>
+  <si>
+    <t>storm</t>
+  </si>
+  <si>
+    <t>che</t>
+  </si>
+  <si>
+    <t>pinpoint</t>
+  </si>
+  <si>
+    <t>wildfly</t>
+  </si>
+  <si>
     <t>airbyte</t>
   </si>
   <si>
@@ -85,9 +100,6 @@
     <t>kafka</t>
   </si>
   <si>
-    <t>skywalking</t>
-  </si>
-  <si>
     <t>hadoop</t>
   </si>
   <si>
@@ -100,9 +112,6 @@
     <t>zookeeper</t>
   </si>
   <si>
-    <t>storm</t>
-  </si>
-  <si>
     <t>incubator-dolphinscheduler</t>
   </si>
   <si>
@@ -313,9 +322,6 @@
     <t>ebean</t>
   </si>
   <si>
-    <t>che</t>
-  </si>
-  <si>
     <t>jetty.project</t>
   </si>
   <si>
@@ -664,9 +670,6 @@
     <t>msgpack-java</t>
   </si>
   <si>
-    <t>pinpoint</t>
-  </si>
-  <si>
     <t>ngrinder</t>
   </si>
   <si>
@@ -970,9 +973,6 @@
     <t>apps-android-wikipedia</t>
   </si>
   <si>
-    <t>wildfly</t>
-  </si>
-  <si>
     <t>Universal-G-Code-Sender</t>
   </si>
   <si>
@@ -1000,25 +1000,25 @@
     <t>automation</t>
   </si>
   <si>
+    <t>monitoring</t>
+  </si>
+  <si>
+    <t>hpc</t>
+  </si>
+  <si>
+    <t>software development</t>
+  </si>
+  <si>
     <t>infrastructure management</t>
   </si>
   <si>
     <t>media</t>
   </si>
   <si>
-    <t>hpc</t>
-  </si>
-  <si>
     <t>security</t>
   </si>
   <si>
     <t>machine learning</t>
-  </si>
-  <si>
-    <t>software development</t>
-  </si>
-  <si>
-    <t>monitoring</t>
   </si>
   <si>
     <t>collaboration</t>
@@ -1480,8 +1480,11 @@
       <c r="B3" t="s">
         <v>328</v>
       </c>
-      <c r="D3" t="s">
-        <v>3</v>
+      <c r="F3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1494,8 +1497,11 @@
       <c r="C4" t="s">
         <v>2</v>
       </c>
-      <c r="I4" t="s">
-        <v>8</v>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1503,13 +1509,7 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>328</v>
-      </c>
-      <c r="E5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H5" t="s">
-        <v>7</v>
+        <v>330</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1522,16 +1522,31 @@
       <c r="C6" t="s">
         <v>2</v>
       </c>
+      <c r="E6" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C7" t="s">
         <v>2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1541,8 +1556,8 @@
       <c r="B8" t="s">
         <v>331</v>
       </c>
-      <c r="H8" t="s">
-        <v>7</v>
+      <c r="D8" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1552,16 +1567,25 @@
       <c r="B9" t="s">
         <v>332</v>
       </c>
+      <c r="C9" t="s">
+        <v>2</v>
+      </c>
+      <c r="I9" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>329</v>
-      </c>
-      <c r="C10" t="s">
-        <v>2</v>
+        <v>331</v>
+      </c>
+      <c r="E10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1569,10 +1593,10 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>329</v>
-      </c>
-      <c r="F11" t="s">
-        <v>5</v>
+        <v>331</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1582,6 +1606,9 @@
       <c r="B12" t="s">
         <v>329</v>
       </c>
+      <c r="C12" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
@@ -1599,13 +1626,7 @@
         <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>328</v>
-      </c>
-      <c r="E14" t="s">
-        <v>4</v>
-      </c>
-      <c r="H14" t="s">
-        <v>7</v>
+        <v>334</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1613,10 +1634,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>328</v>
-      </c>
-      <c r="F15" t="s">
-        <v>5</v>
+        <v>332</v>
+      </c>
+      <c r="C15" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1624,108 +1645,87 @@
         <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="F16" t="s">
         <v>5</v>
       </c>
-      <c r="H16" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
         <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>330</v>
-      </c>
-      <c r="C17" t="s">
-        <v>2</v>
-      </c>
-      <c r="F17" t="s">
-        <v>5</v>
-      </c>
-      <c r="H17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
         <v>25</v>
       </c>
       <c r="B18" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>330</v>
+      </c>
+      <c r="H18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
         <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>328</v>
-      </c>
-      <c r="C19" t="s">
-        <v>2</v>
+        <v>331</v>
       </c>
       <c r="E19" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="20" spans="1:9">
+      <c r="H19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
         <v>27</v>
       </c>
       <c r="B20" t="s">
-        <v>328</v>
-      </c>
-      <c r="C20" t="s">
-        <v>2</v>
-      </c>
-      <c r="H20" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>331</v>
+      </c>
+      <c r="F20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
         <v>28</v>
       </c>
       <c r="B21" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C21" t="s">
         <v>2</v>
       </c>
-      <c r="D21" t="s">
-        <v>3</v>
-      </c>
-      <c r="E21" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+      <c r="F21" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" t="s">
         <v>29</v>
       </c>
       <c r="B22" t="s">
-        <v>328</v>
-      </c>
-      <c r="C22" t="s">
-        <v>2</v>
-      </c>
-      <c r="E22" t="s">
-        <v>4</v>
-      </c>
-      <c r="H22" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" t="s">
         <v>30</v>
       </c>
       <c r="B23" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="C23" t="s">
         <v>2</v>
@@ -1734,60 +1734,57 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:8">
       <c r="A24" t="s">
         <v>31</v>
       </c>
       <c r="B24" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="C24" t="s">
         <v>2</v>
       </c>
-      <c r="E24" t="s">
-        <v>4</v>
-      </c>
       <c r="H24" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:8">
       <c r="A25" t="s">
         <v>32</v>
       </c>
       <c r="B25" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C25" t="s">
         <v>2</v>
       </c>
-      <c r="F25" t="s">
-        <v>5</v>
+      <c r="E25" t="s">
+        <v>4</v>
       </c>
       <c r="H25" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:8">
       <c r="A26" t="s">
         <v>33</v>
       </c>
       <c r="B26" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C26" t="s">
         <v>2</v>
       </c>
-      <c r="H26" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+      <c r="E26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" t="s">
         <v>34</v>
       </c>
       <c r="B27" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C27" t="s">
         <v>2</v>
@@ -1795,24 +1792,33 @@
       <c r="E27" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="28" spans="1:9">
+      <c r="H27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" t="s">
         <v>35</v>
       </c>
       <c r="B28" t="s">
-        <v>328</v>
+        <v>330</v>
+      </c>
+      <c r="C28" t="s">
+        <v>2</v>
+      </c>
+      <c r="F28" t="s">
+        <v>5</v>
       </c>
       <c r="H28" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:8">
       <c r="A29" t="s">
         <v>36</v>
       </c>
       <c r="B29" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="C29" t="s">
         <v>2</v>
@@ -1821,55 +1827,43 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:8">
       <c r="A30" t="s">
         <v>37</v>
       </c>
       <c r="B30" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="C30" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="31" spans="1:9">
+      <c r="E30" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" t="s">
         <v>38</v>
       </c>
       <c r="B31" t="s">
-        <v>330</v>
-      </c>
-      <c r="C31" t="s">
-        <v>2</v>
-      </c>
-      <c r="E31" t="s">
-        <v>4</v>
+        <v>331</v>
       </c>
       <c r="H31" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:8">
       <c r="A32" t="s">
         <v>39</v>
       </c>
       <c r="B32" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C32" t="s">
         <v>2</v>
       </c>
-      <c r="E32" t="s">
-        <v>4</v>
-      </c>
-      <c r="F32" t="s">
-        <v>5</v>
-      </c>
       <c r="H32" t="s">
         <v>7</v>
-      </c>
-      <c r="I32" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1877,10 +1871,10 @@
         <v>40</v>
       </c>
       <c r="B33" t="s">
-        <v>333</v>
-      </c>
-      <c r="H33" t="s">
-        <v>7</v>
+        <v>328</v>
+      </c>
+      <c r="C33" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1888,10 +1882,16 @@
         <v>41</v>
       </c>
       <c r="B34" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C34" t="s">
         <v>2</v>
+      </c>
+      <c r="E34" t="s">
+        <v>4</v>
+      </c>
+      <c r="H34" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1899,10 +1899,22 @@
         <v>42</v>
       </c>
       <c r="B35" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C35" t="s">
         <v>2</v>
+      </c>
+      <c r="E35" t="s">
+        <v>4</v>
+      </c>
+      <c r="F35" t="s">
+        <v>5</v>
+      </c>
+      <c r="H35" t="s">
+        <v>7</v>
+      </c>
+      <c r="I35" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1910,19 +1922,10 @@
         <v>43</v>
       </c>
       <c r="B36" t="s">
-        <v>328</v>
-      </c>
-      <c r="C36" t="s">
-        <v>2</v>
-      </c>
-      <c r="E36" t="s">
-        <v>4</v>
+        <v>330</v>
       </c>
       <c r="H36" t="s">
         <v>7</v>
-      </c>
-      <c r="I36" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1930,16 +1933,10 @@
         <v>44</v>
       </c>
       <c r="B37" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="C37" t="s">
         <v>2</v>
-      </c>
-      <c r="E37" t="s">
-        <v>4</v>
-      </c>
-      <c r="F37" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1947,13 +1944,10 @@
         <v>45</v>
       </c>
       <c r="B38" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="C38" t="s">
         <v>2</v>
-      </c>
-      <c r="H38" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1961,10 +1955,19 @@
         <v>46</v>
       </c>
       <c r="B39" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C39" t="s">
         <v>2</v>
+      </c>
+      <c r="E39" t="s">
+        <v>4</v>
+      </c>
+      <c r="H39" t="s">
+        <v>7</v>
+      </c>
+      <c r="I39" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1972,7 +1975,16 @@
         <v>47</v>
       </c>
       <c r="B40" t="s">
-        <v>330</v>
+        <v>336</v>
+      </c>
+      <c r="C40" t="s">
+        <v>2</v>
+      </c>
+      <c r="E40" t="s">
+        <v>4</v>
+      </c>
+      <c r="F40" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1980,7 +1992,7 @@
         <v>48</v>
       </c>
       <c r="B41" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C41" t="s">
         <v>2</v>
@@ -1994,22 +2006,10 @@
         <v>49</v>
       </c>
       <c r="B42" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="C42" t="s">
         <v>2</v>
-      </c>
-      <c r="E42" t="s">
-        <v>4</v>
-      </c>
-      <c r="F42" t="s">
-        <v>5</v>
-      </c>
-      <c r="H42" t="s">
-        <v>7</v>
-      </c>
-      <c r="I42" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -2017,13 +2017,7 @@
         <v>50</v>
       </c>
       <c r="B43" t="s">
-        <v>337</v>
-      </c>
-      <c r="C43" t="s">
-        <v>2</v>
-      </c>
-      <c r="E43" t="s">
-        <v>4</v>
+        <v>329</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -2031,22 +2025,13 @@
         <v>51</v>
       </c>
       <c r="B44" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="C44" t="s">
         <v>2</v>
       </c>
-      <c r="E44" t="s">
-        <v>4</v>
-      </c>
-      <c r="F44" t="s">
-        <v>5</v>
-      </c>
       <c r="H44" t="s">
         <v>7</v>
-      </c>
-      <c r="I44" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -2054,7 +2039,22 @@
         <v>52</v>
       </c>
       <c r="B45" t="s">
-        <v>338</v>
+        <v>328</v>
+      </c>
+      <c r="C45" t="s">
+        <v>2</v>
+      </c>
+      <c r="E45" t="s">
+        <v>4</v>
+      </c>
+      <c r="F45" t="s">
+        <v>5</v>
+      </c>
+      <c r="H45" t="s">
+        <v>7</v>
+      </c>
+      <c r="I45" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -2062,25 +2062,13 @@
         <v>53</v>
       </c>
       <c r="B46" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="C46" t="s">
         <v>2</v>
-      </c>
-      <c r="D46" t="s">
-        <v>3</v>
       </c>
       <c r="E46" t="s">
         <v>4</v>
-      </c>
-      <c r="F46" t="s">
-        <v>5</v>
-      </c>
-      <c r="H46" t="s">
-        <v>7</v>
-      </c>
-      <c r="I46" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -2088,10 +2076,22 @@
         <v>54</v>
       </c>
       <c r="B47" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="C47" t="s">
         <v>2</v>
+      </c>
+      <c r="E47" t="s">
+        <v>4</v>
+      </c>
+      <c r="F47" t="s">
+        <v>5</v>
+      </c>
+      <c r="H47" t="s">
+        <v>7</v>
+      </c>
+      <c r="I47" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -2099,83 +2099,86 @@
         <v>55</v>
       </c>
       <c r="B48" t="s">
-        <v>329</v>
-      </c>
-      <c r="C48" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" t="s">
         <v>56</v>
       </c>
       <c r="B49" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="C49" t="s">
         <v>2</v>
       </c>
+      <c r="D49" t="s">
+        <v>3</v>
+      </c>
+      <c r="E49" t="s">
+        <v>4</v>
+      </c>
       <c r="F49" t="s">
         <v>5</v>
       </c>
       <c r="H49" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="50" spans="1:8">
+      <c r="I49" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" t="s">
         <v>57</v>
       </c>
       <c r="B50" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
       <c r="C50" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:9">
       <c r="A51" t="s">
         <v>58</v>
       </c>
       <c r="B51" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="C51" t="s">
         <v>2</v>
       </c>
-      <c r="H51" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" t="s">
         <v>59</v>
       </c>
       <c r="B52" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C52" t="s">
         <v>2</v>
       </c>
-      <c r="E52" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+      <c r="F52" t="s">
+        <v>5</v>
+      </c>
+      <c r="H52" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" t="s">
         <v>60</v>
       </c>
       <c r="B53" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="C53" t="s">
         <v>2</v>
       </c>
-      <c r="H53" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" t="s">
         <v>61</v>
       </c>
@@ -2185,13 +2188,16 @@
       <c r="C54" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="55" spans="1:8">
+      <c r="H54" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" t="s">
         <v>62</v>
       </c>
       <c r="B55" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="C55" t="s">
         <v>2</v>
@@ -2200,88 +2206,100 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:9">
       <c r="A56" t="s">
         <v>63</v>
       </c>
       <c r="B56" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>340</v>
+      </c>
+      <c r="C56" t="s">
+        <v>2</v>
+      </c>
+      <c r="H56" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" t="s">
         <v>64</v>
       </c>
       <c r="B57" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="C57" t="s">
         <v>2</v>
       </c>
-      <c r="F57" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" t="s">
         <v>65</v>
       </c>
       <c r="B58" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>336</v>
+      </c>
+      <c r="C58" t="s">
+        <v>2</v>
+      </c>
+      <c r="E58" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" t="s">
         <v>66</v>
       </c>
       <c r="B59" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" t="s">
         <v>67</v>
       </c>
       <c r="B60" t="s">
-        <v>334</v>
-      </c>
-      <c r="H60" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>341</v>
+      </c>
+      <c r="C60" t="s">
+        <v>2</v>
+      </c>
+      <c r="F60" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" t="s">
         <v>68</v>
       </c>
       <c r="B61" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" t="s">
         <v>69</v>
       </c>
       <c r="B62" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" t="s">
         <v>70</v>
       </c>
       <c r="B63" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>328</v>
+      </c>
+      <c r="H63" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" t="s">
         <v>71</v>
       </c>
       <c r="B64" t="s">
-        <v>342</v>
-      </c>
-      <c r="F64" t="s">
-        <v>5</v>
+        <v>337</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2289,10 +2307,7 @@
         <v>72</v>
       </c>
       <c r="B65" t="s">
-        <v>327</v>
-      </c>
-      <c r="C65" t="s">
-        <v>2</v>
+        <v>342</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2300,7 +2315,7 @@
         <v>73</v>
       </c>
       <c r="B66" t="s">
-        <v>329</v>
+        <v>342</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2308,7 +2323,10 @@
         <v>74</v>
       </c>
       <c r="B67" t="s">
-        <v>334</v>
+        <v>342</v>
+      </c>
+      <c r="F67" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2316,13 +2334,10 @@
         <v>75</v>
       </c>
       <c r="B68" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="C68" t="s">
         <v>2</v>
-      </c>
-      <c r="H68" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2330,13 +2345,7 @@
         <v>76</v>
       </c>
       <c r="B69" t="s">
-        <v>333</v>
-      </c>
-      <c r="E69" t="s">
-        <v>4</v>
-      </c>
-      <c r="F69" t="s">
-        <v>5</v>
+        <v>332</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2344,7 +2353,7 @@
         <v>77</v>
       </c>
       <c r="B70" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2352,7 +2361,10 @@
         <v>78</v>
       </c>
       <c r="B71" t="s">
-        <v>332</v>
+        <v>328</v>
+      </c>
+      <c r="C71" t="s">
+        <v>2</v>
       </c>
       <c r="H71" t="s">
         <v>7</v>
@@ -2363,10 +2375,13 @@
         <v>79</v>
       </c>
       <c r="B72" t="s">
-        <v>332</v>
-      </c>
-      <c r="C72" t="s">
-        <v>2</v>
+        <v>330</v>
+      </c>
+      <c r="E72" t="s">
+        <v>4</v>
+      </c>
+      <c r="F72" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2374,13 +2389,7 @@
         <v>80</v>
       </c>
       <c r="B73" t="s">
-        <v>333</v>
-      </c>
-      <c r="F73" t="s">
-        <v>5</v>
-      </c>
-      <c r="H73" t="s">
-        <v>7</v>
+        <v>330</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2388,13 +2397,7 @@
         <v>81</v>
       </c>
       <c r="B74" t="s">
-        <v>331</v>
-      </c>
-      <c r="C74" t="s">
-        <v>2</v>
-      </c>
-      <c r="E74" t="s">
-        <v>4</v>
+        <v>334</v>
       </c>
       <c r="H74" t="s">
         <v>7</v>
@@ -2405,7 +2408,7 @@
         <v>82</v>
       </c>
       <c r="B75" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C75" t="s">
         <v>2</v>
@@ -2416,7 +2419,13 @@
         <v>83</v>
       </c>
       <c r="B76" t="s">
-        <v>329</v>
+        <v>330</v>
+      </c>
+      <c r="F76" t="s">
+        <v>5</v>
+      </c>
+      <c r="H76" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2429,16 +2438,22 @@
       <c r="C77" t="s">
         <v>2</v>
       </c>
+      <c r="E77" t="s">
+        <v>4</v>
+      </c>
+      <c r="H77" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="78" spans="1:8">
       <c r="A78" t="s">
         <v>85</v>
       </c>
       <c r="B78" t="s">
-        <v>328</v>
-      </c>
-      <c r="H78" t="s">
-        <v>7</v>
+        <v>330</v>
+      </c>
+      <c r="C78" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,10 +2461,7 @@
         <v>86</v>
       </c>
       <c r="B79" t="s">
-        <v>338</v>
-      </c>
-      <c r="H79" t="s">
-        <v>7</v>
+        <v>332</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2457,7 +2469,10 @@
         <v>87</v>
       </c>
       <c r="B80" t="s">
-        <v>331</v>
+        <v>330</v>
+      </c>
+      <c r="C80" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2467,13 +2482,19 @@
       <c r="B81" t="s">
         <v>331</v>
       </c>
+      <c r="H81" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="82" spans="1:8">
       <c r="A82" t="s">
         <v>89</v>
       </c>
       <c r="B82" t="s">
-        <v>331</v>
+        <v>338</v>
+      </c>
+      <c r="H82" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2481,19 +2502,7 @@
         <v>90</v>
       </c>
       <c r="B83" t="s">
-        <v>328</v>
-      </c>
-      <c r="C83" t="s">
-        <v>2</v>
-      </c>
-      <c r="E83" t="s">
-        <v>4</v>
-      </c>
-      <c r="F83" t="s">
-        <v>5</v>
-      </c>
-      <c r="H83" t="s">
-        <v>7</v>
+        <v>333</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2503,18 +2512,6 @@
       <c r="B84" t="s">
         <v>333</v>
       </c>
-      <c r="C84" t="s">
-        <v>2</v>
-      </c>
-      <c r="E84" t="s">
-        <v>4</v>
-      </c>
-      <c r="F84" t="s">
-        <v>5</v>
-      </c>
-      <c r="H84" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="85" spans="1:8">
       <c r="A85" t="s">
@@ -2523,19 +2520,19 @@
       <c r="B85" t="s">
         <v>333</v>
       </c>
-      <c r="C85" t="s">
-        <v>2</v>
-      </c>
-      <c r="F85" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="86" spans="1:8">
       <c r="A86" t="s">
         <v>93</v>
       </c>
       <c r="B86" t="s">
-        <v>334</v>
+        <v>331</v>
+      </c>
+      <c r="C86" t="s">
+        <v>2</v>
+      </c>
+      <c r="E86" t="s">
+        <v>4</v>
       </c>
       <c r="F86" t="s">
         <v>5</v>
@@ -2549,7 +2546,19 @@
         <v>94</v>
       </c>
       <c r="B87" t="s">
-        <v>332</v>
+        <v>330</v>
+      </c>
+      <c r="C87" t="s">
+        <v>2</v>
+      </c>
+      <c r="E87" t="s">
+        <v>4</v>
+      </c>
+      <c r="F87" t="s">
+        <v>5</v>
+      </c>
+      <c r="H87" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2557,7 +2566,13 @@
         <v>95</v>
       </c>
       <c r="B88" t="s">
-        <v>333</v>
+        <v>330</v>
+      </c>
+      <c r="C88" t="s">
+        <v>2</v>
+      </c>
+      <c r="F88" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2565,7 +2580,13 @@
         <v>96</v>
       </c>
       <c r="B89" t="s">
-        <v>343</v>
+        <v>328</v>
+      </c>
+      <c r="F89" t="s">
+        <v>5</v>
+      </c>
+      <c r="H89" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2573,16 +2594,7 @@
         <v>97</v>
       </c>
       <c r="B90" t="s">
-        <v>338</v>
-      </c>
-      <c r="C90" t="s">
-        <v>2</v>
-      </c>
-      <c r="E90" t="s">
-        <v>4</v>
-      </c>
-      <c r="H90" t="s">
-        <v>7</v>
+        <v>334</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2590,13 +2602,7 @@
         <v>98</v>
       </c>
       <c r="B91" t="s">
-        <v>333</v>
-      </c>
-      <c r="C91" t="s">
-        <v>2</v>
-      </c>
-      <c r="F91" t="s">
-        <v>5</v>
+        <v>330</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2604,7 +2610,7 @@
         <v>99</v>
       </c>
       <c r="B92" t="s">
-        <v>333</v>
+        <v>343</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2617,6 +2623,9 @@
       <c r="C93" t="s">
         <v>2</v>
       </c>
+      <c r="E93" t="s">
+        <v>4</v>
+      </c>
       <c r="H93" t="s">
         <v>7</v>
       </c>
@@ -2626,13 +2635,13 @@
         <v>101</v>
       </c>
       <c r="B94" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C94" t="s">
         <v>2</v>
       </c>
-      <c r="H94" t="s">
-        <v>7</v>
+      <c r="F94" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2640,7 +2649,13 @@
         <v>102</v>
       </c>
       <c r="B95" t="s">
-        <v>333</v>
+        <v>338</v>
+      </c>
+      <c r="C95" t="s">
+        <v>2</v>
+      </c>
+      <c r="H95" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2648,13 +2663,13 @@
         <v>103</v>
       </c>
       <c r="B96" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C96" t="s">
         <v>2</v>
       </c>
-      <c r="F96" t="s">
-        <v>5</v>
+      <c r="H96" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2670,7 +2685,13 @@
         <v>105</v>
       </c>
       <c r="B98" t="s">
-        <v>327</v>
+        <v>330</v>
+      </c>
+      <c r="C98" t="s">
+        <v>2</v>
+      </c>
+      <c r="F98" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2678,10 +2699,7 @@
         <v>106</v>
       </c>
       <c r="B99" t="s">
-        <v>342</v>
-      </c>
-      <c r="C99" t="s">
-        <v>2</v>
+        <v>329</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2689,10 +2707,7 @@
         <v>107</v>
       </c>
       <c r="B100" t="s">
-        <v>333</v>
-      </c>
-      <c r="C100" t="s">
-        <v>2</v>
+        <v>327</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -2700,7 +2715,10 @@
         <v>108</v>
       </c>
       <c r="B101" t="s">
-        <v>329</v>
+        <v>342</v>
+      </c>
+      <c r="C101" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -2708,7 +2726,10 @@
         <v>109</v>
       </c>
       <c r="B102" t="s">
-        <v>343</v>
+        <v>330</v>
+      </c>
+      <c r="C102" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -2716,10 +2737,7 @@
         <v>110</v>
       </c>
       <c r="B103" t="s">
-        <v>333</v>
-      </c>
-      <c r="C103" t="s">
-        <v>2</v>
+        <v>332</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -2727,7 +2745,7 @@
         <v>111</v>
       </c>
       <c r="B104" t="s">
-        <v>333</v>
+        <v>343</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -2735,7 +2753,10 @@
         <v>112</v>
       </c>
       <c r="B105" t="s">
-        <v>333</v>
+        <v>330</v>
+      </c>
+      <c r="C105" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -2743,7 +2764,7 @@
         <v>113</v>
       </c>
       <c r="B106" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -2751,16 +2772,7 @@
         <v>114</v>
       </c>
       <c r="B107" t="s">
-        <v>331</v>
-      </c>
-      <c r="C107" t="s">
-        <v>2</v>
-      </c>
-      <c r="F107" t="s">
-        <v>5</v>
-      </c>
-      <c r="H107" t="s">
-        <v>7</v>
+        <v>330</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -2768,7 +2780,7 @@
         <v>115</v>
       </c>
       <c r="B108" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -2781,9 +2793,6 @@
       <c r="C109" t="s">
         <v>2</v>
       </c>
-      <c r="E109" t="s">
-        <v>4</v>
-      </c>
       <c r="F109" t="s">
         <v>5</v>
       </c>
@@ -2804,7 +2813,19 @@
         <v>118</v>
       </c>
       <c r="B111" t="s">
-        <v>328</v>
+        <v>330</v>
+      </c>
+      <c r="C111" t="s">
+        <v>2</v>
+      </c>
+      <c r="E111" t="s">
+        <v>4</v>
+      </c>
+      <c r="F111" t="s">
+        <v>5</v>
+      </c>
+      <c r="H111" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -2812,7 +2833,7 @@
         <v>119</v>
       </c>
       <c r="B112" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -2820,10 +2841,7 @@
         <v>120</v>
       </c>
       <c r="B113" t="s">
-        <v>332</v>
-      </c>
-      <c r="C113" t="s">
-        <v>2</v>
+        <v>331</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -2831,7 +2849,7 @@
         <v>121</v>
       </c>
       <c r="B114" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -2839,7 +2857,10 @@
         <v>122</v>
       </c>
       <c r="B115" t="s">
-        <v>329</v>
+        <v>334</v>
+      </c>
+      <c r="C115" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -2847,7 +2868,7 @@
         <v>123</v>
       </c>
       <c r="B116" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -2855,16 +2876,7 @@
         <v>124</v>
       </c>
       <c r="B117" t="s">
-        <v>329</v>
-      </c>
-      <c r="C117" t="s">
-        <v>2</v>
-      </c>
-      <c r="F117" t="s">
-        <v>5</v>
-      </c>
-      <c r="H117" t="s">
-        <v>7</v>
+        <v>332</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -2872,19 +2884,7 @@
         <v>125</v>
       </c>
       <c r="B118" t="s">
-        <v>336</v>
-      </c>
-      <c r="C118" t="s">
-        <v>2</v>
-      </c>
-      <c r="E118" t="s">
-        <v>4</v>
-      </c>
-      <c r="F118" t="s">
-        <v>5</v>
-      </c>
-      <c r="H118" t="s">
-        <v>7</v>
+        <v>331</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -2892,10 +2892,16 @@
         <v>126</v>
       </c>
       <c r="B119" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="C119" t="s">
         <v>2</v>
+      </c>
+      <c r="F119" t="s">
+        <v>5</v>
+      </c>
+      <c r="H119" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -2903,7 +2909,19 @@
         <v>127</v>
       </c>
       <c r="B120" t="s">
-        <v>342</v>
+        <v>336</v>
+      </c>
+      <c r="C120" t="s">
+        <v>2</v>
+      </c>
+      <c r="E120" t="s">
+        <v>4</v>
+      </c>
+      <c r="F120" t="s">
+        <v>5</v>
+      </c>
+      <c r="H120" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -2911,10 +2929,10 @@
         <v>128</v>
       </c>
       <c r="B121" t="s">
-        <v>333</v>
-      </c>
-      <c r="E121" t="s">
-        <v>4</v>
+        <v>332</v>
+      </c>
+      <c r="C121" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -2922,13 +2940,7 @@
         <v>129</v>
       </c>
       <c r="B122" t="s">
-        <v>335</v>
-      </c>
-      <c r="C122" t="s">
-        <v>2</v>
-      </c>
-      <c r="H122" t="s">
-        <v>7</v>
+        <v>342</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -2936,10 +2948,10 @@
         <v>130</v>
       </c>
       <c r="B123" t="s">
-        <v>342</v>
-      </c>
-      <c r="F123" t="s">
-        <v>5</v>
+        <v>330</v>
+      </c>
+      <c r="E123" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -2947,10 +2959,13 @@
         <v>131</v>
       </c>
       <c r="B124" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="C124" t="s">
         <v>2</v>
+      </c>
+      <c r="H124" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -2958,16 +2973,10 @@
         <v>132</v>
       </c>
       <c r="B125" t="s">
-        <v>327</v>
-      </c>
-      <c r="C125" t="s">
-        <v>2</v>
-      </c>
-      <c r="E125" t="s">
-        <v>4</v>
-      </c>
-      <c r="H125" t="s">
-        <v>7</v>
+        <v>342</v>
+      </c>
+      <c r="F125" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -2975,7 +2984,7 @@
         <v>133</v>
       </c>
       <c r="B126" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C126" t="s">
         <v>2</v>
@@ -2986,10 +2995,13 @@
         <v>134</v>
       </c>
       <c r="B127" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="C127" t="s">
         <v>2</v>
+      </c>
+      <c r="E127" t="s">
+        <v>4</v>
       </c>
       <c r="H127" t="s">
         <v>7</v>
@@ -3000,10 +3012,10 @@
         <v>135</v>
       </c>
       <c r="B128" t="s">
-        <v>333</v>
-      </c>
-      <c r="F128" t="s">
-        <v>5</v>
+        <v>332</v>
+      </c>
+      <c r="C128" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3011,13 +3023,10 @@
         <v>136</v>
       </c>
       <c r="B129" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="C129" t="s">
         <v>2</v>
-      </c>
-      <c r="F129" t="s">
-        <v>5</v>
       </c>
       <c r="H129" t="s">
         <v>7</v>
@@ -3028,7 +3037,10 @@
         <v>137</v>
       </c>
       <c r="B130" t="s">
-        <v>333</v>
+        <v>330</v>
+      </c>
+      <c r="F130" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3036,7 +3048,13 @@
         <v>138</v>
       </c>
       <c r="B131" t="s">
-        <v>343</v>
+        <v>338</v>
+      </c>
+      <c r="C131" t="s">
+        <v>2</v>
+      </c>
+      <c r="F131" t="s">
+        <v>5</v>
       </c>
       <c r="H131" t="s">
         <v>7</v>
@@ -3047,13 +3065,7 @@
         <v>139</v>
       </c>
       <c r="B132" t="s">
-        <v>329</v>
-      </c>
-      <c r="C132" t="s">
-        <v>2</v>
-      </c>
-      <c r="H132" t="s">
-        <v>7</v>
+        <v>330</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3061,7 +3073,10 @@
         <v>140</v>
       </c>
       <c r="B133" t="s">
-        <v>329</v>
+        <v>343</v>
+      </c>
+      <c r="H133" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3069,7 +3084,13 @@
         <v>141</v>
       </c>
       <c r="B134" t="s">
-        <v>338</v>
+        <v>332</v>
+      </c>
+      <c r="C134" t="s">
+        <v>2</v>
+      </c>
+      <c r="H134" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3077,19 +3098,7 @@
         <v>142</v>
       </c>
       <c r="B135" t="s">
-        <v>328</v>
-      </c>
-      <c r="C135" t="s">
-        <v>2</v>
-      </c>
-      <c r="D135" t="s">
-        <v>3</v>
-      </c>
-      <c r="F135" t="s">
-        <v>5</v>
-      </c>
-      <c r="H135" t="s">
-        <v>7</v>
+        <v>332</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3097,7 +3106,7 @@
         <v>143</v>
       </c>
       <c r="B136" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3105,10 +3114,16 @@
         <v>144</v>
       </c>
       <c r="B137" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C137" t="s">
         <v>2</v>
+      </c>
+      <c r="D137" t="s">
+        <v>3</v>
+      </c>
+      <c r="F137" t="s">
+        <v>5</v>
       </c>
       <c r="H137" t="s">
         <v>7</v>
@@ -3121,16 +3136,19 @@
       <c r="B138" t="s">
         <v>332</v>
       </c>
-      <c r="H138" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="139" spans="1:8">
       <c r="A139" t="s">
         <v>146</v>
       </c>
       <c r="B139" t="s">
-        <v>328</v>
+        <v>334</v>
+      </c>
+      <c r="C139" t="s">
+        <v>2</v>
+      </c>
+      <c r="H139" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -3138,10 +3156,10 @@
         <v>147</v>
       </c>
       <c r="B140" t="s">
-        <v>333</v>
-      </c>
-      <c r="C140" t="s">
-        <v>2</v>
+        <v>334</v>
+      </c>
+      <c r="H140" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -3149,13 +3167,7 @@
         <v>148</v>
       </c>
       <c r="B141" t="s">
-        <v>333</v>
-      </c>
-      <c r="C141" t="s">
-        <v>2</v>
-      </c>
-      <c r="F141" t="s">
-        <v>5</v>
+        <v>331</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -3163,7 +3175,10 @@
         <v>149</v>
       </c>
       <c r="B142" t="s">
-        <v>329</v>
+        <v>330</v>
+      </c>
+      <c r="C142" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -3171,7 +3186,13 @@
         <v>150</v>
       </c>
       <c r="B143" t="s">
-        <v>342</v>
+        <v>330</v>
+      </c>
+      <c r="C143" t="s">
+        <v>2</v>
+      </c>
+      <c r="F143" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -3179,10 +3200,7 @@
         <v>151</v>
       </c>
       <c r="B144" t="s">
-        <v>338</v>
-      </c>
-      <c r="C144" t="s">
-        <v>2</v>
+        <v>332</v>
       </c>
     </row>
     <row r="145" spans="1:9">
@@ -3190,7 +3208,7 @@
         <v>152</v>
       </c>
       <c r="B145" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
     </row>
     <row r="146" spans="1:9">
@@ -3198,7 +3216,7 @@
         <v>153</v>
       </c>
       <c r="B146" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="C146" t="s">
         <v>2</v>
@@ -3209,7 +3227,7 @@
         <v>154</v>
       </c>
       <c r="B147" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
     </row>
     <row r="148" spans="1:9">
@@ -3217,13 +3235,10 @@
         <v>155</v>
       </c>
       <c r="B148" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="C148" t="s">
         <v>2</v>
-      </c>
-      <c r="E148" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="149" spans="1:9">
@@ -3231,10 +3246,7 @@
         <v>156</v>
       </c>
       <c r="B149" t="s">
-        <v>338</v>
-      </c>
-      <c r="C149" t="s">
-        <v>2</v>
+        <v>336</v>
       </c>
     </row>
     <row r="150" spans="1:9">
@@ -3242,10 +3254,13 @@
         <v>157</v>
       </c>
       <c r="B150" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C150" t="s">
         <v>2</v>
+      </c>
+      <c r="E150" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="151" spans="1:9">
@@ -3253,10 +3268,10 @@
         <v>158</v>
       </c>
       <c r="B151" t="s">
-        <v>344</v>
-      </c>
-      <c r="H151" t="s">
-        <v>7</v>
+        <v>338</v>
+      </c>
+      <c r="C151" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:9">
@@ -3264,7 +3279,10 @@
         <v>159</v>
       </c>
       <c r="B152" t="s">
-        <v>344</v>
+        <v>332</v>
+      </c>
+      <c r="C152" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:9">
@@ -3272,7 +3290,10 @@
         <v>160</v>
       </c>
       <c r="B153" t="s">
-        <v>333</v>
+        <v>344</v>
+      </c>
+      <c r="H153" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="154" spans="1:9">
@@ -3280,7 +3301,7 @@
         <v>161</v>
       </c>
       <c r="B154" t="s">
-        <v>328</v>
+        <v>344</v>
       </c>
     </row>
     <row r="155" spans="1:9">
@@ -3288,22 +3309,7 @@
         <v>162</v>
       </c>
       <c r="B155" t="s">
-        <v>334</v>
-      </c>
-      <c r="C155" t="s">
-        <v>2</v>
-      </c>
-      <c r="E155" t="s">
-        <v>4</v>
-      </c>
-      <c r="F155" t="s">
-        <v>5</v>
-      </c>
-      <c r="H155" t="s">
-        <v>7</v>
-      </c>
-      <c r="I155" t="s">
-        <v>8</v>
+        <v>330</v>
       </c>
     </row>
     <row r="156" spans="1:9">
@@ -3311,7 +3317,7 @@
         <v>163</v>
       </c>
       <c r="B156" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
     </row>
     <row r="157" spans="1:9">
@@ -3319,10 +3325,22 @@
         <v>164</v>
       </c>
       <c r="B157" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="C157" t="s">
         <v>2</v>
+      </c>
+      <c r="E157" t="s">
+        <v>4</v>
+      </c>
+      <c r="F157" t="s">
+        <v>5</v>
+      </c>
+      <c r="H157" t="s">
+        <v>7</v>
+      </c>
+      <c r="I157" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="158" spans="1:9">
@@ -3330,10 +3348,7 @@
         <v>165</v>
       </c>
       <c r="B158" t="s">
-        <v>333</v>
-      </c>
-      <c r="C158" t="s">
-        <v>2</v>
+        <v>344</v>
       </c>
     </row>
     <row r="159" spans="1:9">
@@ -3341,7 +3356,10 @@
         <v>166</v>
       </c>
       <c r="B159" t="s">
-        <v>343</v>
+        <v>340</v>
+      </c>
+      <c r="C159" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:9">
@@ -3349,7 +3367,10 @@
         <v>167</v>
       </c>
       <c r="B160" t="s">
-        <v>333</v>
+        <v>330</v>
+      </c>
+      <c r="C160" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:9">
@@ -3357,13 +3378,7 @@
         <v>168</v>
       </c>
       <c r="B161" t="s">
-        <v>337</v>
-      </c>
-      <c r="C161" t="s">
-        <v>2</v>
-      </c>
-      <c r="H161" t="s">
-        <v>7</v>
+        <v>343</v>
       </c>
     </row>
     <row r="162" spans="1:9">
@@ -3371,7 +3386,7 @@
         <v>169</v>
       </c>
       <c r="B162" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
     </row>
     <row r="163" spans="1:9">
@@ -3379,22 +3394,13 @@
         <v>170</v>
       </c>
       <c r="B163" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="C163" t="s">
         <v>2</v>
       </c>
-      <c r="E163" t="s">
-        <v>4</v>
-      </c>
-      <c r="F163" t="s">
-        <v>5</v>
-      </c>
       <c r="H163" t="s">
         <v>7</v>
-      </c>
-      <c r="I163" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="164" spans="1:9">
@@ -3402,7 +3408,7 @@
         <v>171</v>
       </c>
       <c r="B164" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
     </row>
     <row r="165" spans="1:9">
@@ -3410,16 +3416,22 @@
         <v>172</v>
       </c>
       <c r="B165" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C165" t="s">
         <v>2</v>
       </c>
+      <c r="E165" t="s">
+        <v>4</v>
+      </c>
       <c r="F165" t="s">
         <v>5</v>
       </c>
       <c r="H165" t="s">
         <v>7</v>
+      </c>
+      <c r="I165" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="166" spans="1:9">
@@ -3427,13 +3439,7 @@
         <v>173</v>
       </c>
       <c r="B166" t="s">
-        <v>329</v>
-      </c>
-      <c r="C166" t="s">
-        <v>2</v>
-      </c>
-      <c r="H166" t="s">
-        <v>7</v>
+        <v>330</v>
       </c>
     </row>
     <row r="167" spans="1:9">
@@ -3441,7 +3447,16 @@
         <v>174</v>
       </c>
       <c r="B167" t="s">
-        <v>336</v>
+        <v>330</v>
+      </c>
+      <c r="C167" t="s">
+        <v>2</v>
+      </c>
+      <c r="F167" t="s">
+        <v>5</v>
+      </c>
+      <c r="H167" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="168" spans="1:9">
@@ -3449,13 +3464,10 @@
         <v>175</v>
       </c>
       <c r="B168" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="C168" t="s">
         <v>2</v>
-      </c>
-      <c r="F168" t="s">
-        <v>5</v>
       </c>
       <c r="H168" t="s">
         <v>7</v>
@@ -3466,7 +3478,7 @@
         <v>176</v>
       </c>
       <c r="B169" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
     </row>
     <row r="170" spans="1:9">
@@ -3474,10 +3486,16 @@
         <v>177</v>
       </c>
       <c r="B170" t="s">
-        <v>342</v>
+        <v>336</v>
+      </c>
+      <c r="C170" t="s">
+        <v>2</v>
       </c>
       <c r="F170" t="s">
         <v>5</v>
+      </c>
+      <c r="H170" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="171" spans="1:9">
@@ -3485,7 +3503,7 @@
         <v>178</v>
       </c>
       <c r="B171" t="s">
-        <v>327</v>
+        <v>344</v>
       </c>
     </row>
     <row r="172" spans="1:9">
@@ -3493,10 +3511,10 @@
         <v>179</v>
       </c>
       <c r="B172" t="s">
-        <v>333</v>
-      </c>
-      <c r="H172" t="s">
-        <v>7</v>
+        <v>342</v>
+      </c>
+      <c r="F172" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="173" spans="1:9">
@@ -3504,7 +3522,7 @@
         <v>180</v>
       </c>
       <c r="B173" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
     </row>
     <row r="174" spans="1:9">
@@ -3512,7 +3530,10 @@
         <v>181</v>
       </c>
       <c r="B174" t="s">
-        <v>332</v>
+        <v>330</v>
+      </c>
+      <c r="H174" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="175" spans="1:9">
@@ -3520,10 +3541,7 @@
         <v>182</v>
       </c>
       <c r="B175" t="s">
-        <v>333</v>
-      </c>
-      <c r="F175" t="s">
-        <v>5</v>
+        <v>330</v>
       </c>
     </row>
     <row r="176" spans="1:9">
@@ -3531,7 +3549,7 @@
         <v>183</v>
       </c>
       <c r="B176" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="177" spans="1:9">
@@ -3539,7 +3557,10 @@
         <v>184</v>
       </c>
       <c r="B177" t="s">
-        <v>328</v>
+        <v>330</v>
+      </c>
+      <c r="F177" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="178" spans="1:9">
@@ -3547,7 +3568,7 @@
         <v>185</v>
       </c>
       <c r="B178" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
     </row>
     <row r="179" spans="1:9">
@@ -3555,7 +3576,7 @@
         <v>186</v>
       </c>
       <c r="B179" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
     </row>
     <row r="180" spans="1:9">
@@ -3565,34 +3586,13 @@
       <c r="B180" t="s">
         <v>332</v>
       </c>
-      <c r="C180" t="s">
-        <v>2</v>
-      </c>
-      <c r="H180" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="181" spans="1:9">
       <c r="A181" t="s">
         <v>188</v>
       </c>
       <c r="B181" t="s">
-        <v>331</v>
-      </c>
-      <c r="C181" t="s">
-        <v>2</v>
-      </c>
-      <c r="E181" t="s">
-        <v>4</v>
-      </c>
-      <c r="F181" t="s">
-        <v>5</v>
-      </c>
-      <c r="H181" t="s">
-        <v>7</v>
-      </c>
-      <c r="I181" t="s">
-        <v>8</v>
+        <v>337</v>
       </c>
     </row>
     <row r="182" spans="1:9">
@@ -3600,7 +3600,13 @@
         <v>189</v>
       </c>
       <c r="B182" t="s">
-        <v>345</v>
+        <v>334</v>
+      </c>
+      <c r="C182" t="s">
+        <v>2</v>
+      </c>
+      <c r="H182" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="183" spans="1:9">
@@ -3608,16 +3614,22 @@
         <v>190</v>
       </c>
       <c r="B183" t="s">
-        <v>346</v>
+        <v>333</v>
       </c>
       <c r="C183" t="s">
         <v>2</v>
       </c>
+      <c r="E183" t="s">
+        <v>4</v>
+      </c>
       <c r="F183" t="s">
         <v>5</v>
       </c>
       <c r="H183" t="s">
         <v>7</v>
+      </c>
+      <c r="I183" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="184" spans="1:9">
@@ -3625,19 +3637,7 @@
         <v>191</v>
       </c>
       <c r="B184" t="s">
-        <v>346</v>
-      </c>
-      <c r="C184" t="s">
-        <v>2</v>
-      </c>
-      <c r="F184" t="s">
-        <v>5</v>
-      </c>
-      <c r="H184" t="s">
-        <v>7</v>
-      </c>
-      <c r="I184" t="s">
-        <v>8</v>
+        <v>345</v>
       </c>
     </row>
     <row r="185" spans="1:9">
@@ -3645,7 +3645,7 @@
         <v>192</v>
       </c>
       <c r="B185" t="s">
-        <v>327</v>
+        <v>346</v>
       </c>
       <c r="C185" t="s">
         <v>2</v>
@@ -3662,13 +3662,19 @@
         <v>193</v>
       </c>
       <c r="B186" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C186" t="s">
         <v>2</v>
       </c>
       <c r="F186" t="s">
         <v>5</v>
+      </c>
+      <c r="H186" t="s">
+        <v>7</v>
+      </c>
+      <c r="I186" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="187" spans="1:9">
@@ -3676,10 +3682,16 @@
         <v>194</v>
       </c>
       <c r="B187" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="C187" t="s">
         <v>2</v>
+      </c>
+      <c r="F187" t="s">
+        <v>5</v>
+      </c>
+      <c r="H187" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="188" spans="1:9">
@@ -3687,10 +3699,13 @@
         <v>195</v>
       </c>
       <c r="B188" t="s">
-        <v>329</v>
+        <v>347</v>
       </c>
       <c r="C188" t="s">
         <v>2</v>
+      </c>
+      <c r="F188" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="189" spans="1:9">
@@ -3698,7 +3713,10 @@
         <v>196</v>
       </c>
       <c r="B189" t="s">
-        <v>329</v>
+        <v>330</v>
+      </c>
+      <c r="C189" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:9">
@@ -3706,7 +3724,10 @@
         <v>197</v>
       </c>
       <c r="B190" t="s">
-        <v>329</v>
+        <v>332</v>
+      </c>
+      <c r="C190" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:9">
@@ -3714,22 +3735,7 @@
         <v>198</v>
       </c>
       <c r="B191" t="s">
-        <v>328</v>
-      </c>
-      <c r="C191" t="s">
-        <v>2</v>
-      </c>
-      <c r="E191" t="s">
-        <v>4</v>
-      </c>
-      <c r="F191" t="s">
-        <v>5</v>
-      </c>
-      <c r="H191" t="s">
-        <v>7</v>
-      </c>
-      <c r="I191" t="s">
-        <v>8</v>
+        <v>332</v>
       </c>
     </row>
     <row r="192" spans="1:9">
@@ -3737,7 +3743,7 @@
         <v>199</v>
       </c>
       <c r="B192" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="193" spans="1:9">
@@ -3745,13 +3751,22 @@
         <v>200</v>
       </c>
       <c r="B193" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C193" t="s">
         <v>2</v>
       </c>
+      <c r="E193" t="s">
+        <v>4</v>
+      </c>
+      <c r="F193" t="s">
+        <v>5</v>
+      </c>
       <c r="H193" t="s">
         <v>7</v>
+      </c>
+      <c r="I193" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="194" spans="1:9">
@@ -3759,7 +3774,7 @@
         <v>201</v>
       </c>
       <c r="B194" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
     </row>
     <row r="195" spans="1:9">
@@ -3767,7 +3782,13 @@
         <v>202</v>
       </c>
       <c r="B195" t="s">
-        <v>338</v>
+        <v>330</v>
+      </c>
+      <c r="C195" t="s">
+        <v>2</v>
+      </c>
+      <c r="H195" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="196" spans="1:9">
@@ -3777,22 +3798,13 @@
       <c r="B196" t="s">
         <v>342</v>
       </c>
-      <c r="F196" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="197" spans="1:9">
       <c r="A197" t="s">
         <v>204</v>
       </c>
       <c r="B197" t="s">
-        <v>333</v>
-      </c>
-      <c r="C197" t="s">
-        <v>2</v>
-      </c>
-      <c r="F197" t="s">
-        <v>5</v>
+        <v>338</v>
       </c>
     </row>
     <row r="198" spans="1:9">
@@ -3800,10 +3812,10 @@
         <v>205</v>
       </c>
       <c r="B198" t="s">
-        <v>329</v>
-      </c>
-      <c r="C198" t="s">
-        <v>2</v>
+        <v>342</v>
+      </c>
+      <c r="F198" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="199" spans="1:9">
@@ -3811,7 +3823,13 @@
         <v>206</v>
       </c>
       <c r="B199" t="s">
-        <v>333</v>
+        <v>330</v>
+      </c>
+      <c r="C199" t="s">
+        <v>2</v>
+      </c>
+      <c r="F199" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="200" spans="1:9">
@@ -3819,7 +3837,10 @@
         <v>207</v>
       </c>
       <c r="B200" t="s">
-        <v>334</v>
+        <v>332</v>
+      </c>
+      <c r="C200" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:9">
@@ -3827,16 +3848,7 @@
         <v>208</v>
       </c>
       <c r="B201" t="s">
-        <v>334</v>
-      </c>
-      <c r="D201" t="s">
-        <v>3</v>
-      </c>
-      <c r="F201" t="s">
-        <v>5</v>
-      </c>
-      <c r="H201" t="s">
-        <v>7</v>
+        <v>330</v>
       </c>
     </row>
     <row r="202" spans="1:9">
@@ -3844,7 +3856,7 @@
         <v>209</v>
       </c>
       <c r="B202" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
     </row>
     <row r="203" spans="1:9">
@@ -3852,7 +3864,16 @@
         <v>210</v>
       </c>
       <c r="B203" t="s">
-        <v>342</v>
+        <v>328</v>
+      </c>
+      <c r="D203" t="s">
+        <v>3</v>
+      </c>
+      <c r="F203" t="s">
+        <v>5</v>
+      </c>
+      <c r="H203" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="204" spans="1:9">
@@ -3860,49 +3881,43 @@
         <v>211</v>
       </c>
       <c r="B204" t="s">
-        <v>333</v>
-      </c>
-      <c r="C204" t="s">
-        <v>2</v>
-      </c>
-      <c r="E204" t="s">
-        <v>4</v>
-      </c>
-      <c r="F204" t="s">
-        <v>5</v>
-      </c>
-      <c r="I204" t="s">
-        <v>8</v>
+        <v>342</v>
       </c>
     </row>
     <row r="205" spans="1:9">
       <c r="A205" t="s">
-        <v>160</v>
+        <v>212</v>
       </c>
       <c r="B205" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
     </row>
     <row r="206" spans="1:9">
       <c r="A206" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B206" t="s">
-        <v>336</v>
+        <v>330</v>
+      </c>
+      <c r="C206" t="s">
+        <v>2</v>
+      </c>
+      <c r="E206" t="s">
+        <v>4</v>
+      </c>
+      <c r="F206" t="s">
+        <v>5</v>
+      </c>
+      <c r="I206" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="207" spans="1:9">
       <c r="A207" t="s">
-        <v>213</v>
+        <v>162</v>
       </c>
       <c r="B207" t="s">
-        <v>342</v>
-      </c>
-      <c r="C207" t="s">
-        <v>2</v>
-      </c>
-      <c r="F207" t="s">
-        <v>5</v>
+        <v>338</v>
       </c>
     </row>
     <row r="208" spans="1:9">
@@ -3910,7 +3925,7 @@
         <v>214</v>
       </c>
       <c r="B208" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -3918,7 +3933,13 @@
         <v>215</v>
       </c>
       <c r="B209" t="s">
-        <v>333</v>
+        <v>342</v>
+      </c>
+      <c r="C209" t="s">
+        <v>2</v>
+      </c>
+      <c r="F209" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -3926,13 +3947,7 @@
         <v>216</v>
       </c>
       <c r="B210" t="s">
-        <v>334</v>
-      </c>
-      <c r="C210" t="s">
-        <v>2</v>
-      </c>
-      <c r="E210" t="s">
-        <v>4</v>
+        <v>332</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -3940,16 +3955,7 @@
         <v>217</v>
       </c>
       <c r="B211" t="s">
-        <v>333</v>
-      </c>
-      <c r="C211" t="s">
-        <v>2</v>
-      </c>
-      <c r="F211" t="s">
-        <v>5</v>
-      </c>
-      <c r="H211" t="s">
-        <v>7</v>
+        <v>330</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -3957,7 +3963,16 @@
         <v>218</v>
       </c>
       <c r="B212" t="s">
-        <v>329</v>
+        <v>330</v>
+      </c>
+      <c r="C212" t="s">
+        <v>2</v>
+      </c>
+      <c r="F212" t="s">
+        <v>5</v>
+      </c>
+      <c r="H212" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -3965,10 +3980,7 @@
         <v>219</v>
       </c>
       <c r="B213" t="s">
-        <v>328</v>
-      </c>
-      <c r="C213" t="s">
-        <v>2</v>
+        <v>332</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -3976,16 +3988,10 @@
         <v>220</v>
       </c>
       <c r="B214" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="C214" t="s">
         <v>2</v>
-      </c>
-      <c r="E214" t="s">
-        <v>4</v>
-      </c>
-      <c r="H214" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -3993,7 +3999,7 @@
         <v>221</v>
       </c>
       <c r="B215" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="C215" t="s">
         <v>2</v>
@@ -4001,30 +4007,36 @@
       <c r="E215" t="s">
         <v>4</v>
       </c>
-      <c r="F215" t="s">
-        <v>5</v>
-      </c>
       <c r="H215" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="216" spans="1:8">
       <c r="A216" t="s">
-        <v>89</v>
+        <v>222</v>
       </c>
       <c r="B216" t="s">
-        <v>329</v>
+        <v>331</v>
+      </c>
+      <c r="C216" t="s">
+        <v>2</v>
+      </c>
+      <c r="E216" t="s">
+        <v>4</v>
+      </c>
+      <c r="F216" t="s">
+        <v>5</v>
+      </c>
+      <c r="H216" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="217" spans="1:8">
       <c r="A217" t="s">
-        <v>222</v>
+        <v>92</v>
       </c>
       <c r="B217" t="s">
-        <v>330</v>
-      </c>
-      <c r="C217" t="s">
-        <v>2</v>
+        <v>332</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -4032,7 +4044,10 @@
         <v>223</v>
       </c>
       <c r="B218" t="s">
-        <v>336</v>
+        <v>329</v>
+      </c>
+      <c r="C218" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -4040,19 +4055,7 @@
         <v>224</v>
       </c>
       <c r="B219" t="s">
-        <v>333</v>
-      </c>
-      <c r="C219" t="s">
-        <v>2</v>
-      </c>
-      <c r="E219" t="s">
-        <v>4</v>
-      </c>
-      <c r="F219" t="s">
-        <v>5</v>
-      </c>
-      <c r="H219" t="s">
-        <v>7</v>
+        <v>336</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -4060,7 +4063,19 @@
         <v>225</v>
       </c>
       <c r="B220" t="s">
-        <v>328</v>
+        <v>330</v>
+      </c>
+      <c r="C220" t="s">
+        <v>2</v>
+      </c>
+      <c r="E220" t="s">
+        <v>4</v>
+      </c>
+      <c r="F220" t="s">
+        <v>5</v>
+      </c>
+      <c r="H220" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -4068,7 +4083,7 @@
         <v>226</v>
       </c>
       <c r="B221" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -4076,13 +4091,7 @@
         <v>227</v>
       </c>
       <c r="B222" t="s">
-        <v>337</v>
-      </c>
-      <c r="C222" t="s">
-        <v>2</v>
-      </c>
-      <c r="H222" t="s">
-        <v>7</v>
+        <v>331</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -4090,7 +4099,7 @@
         <v>228</v>
       </c>
       <c r="B223" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="C223" t="s">
         <v>2</v>
@@ -4104,13 +4113,13 @@
         <v>229</v>
       </c>
       <c r="B224" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C224" t="s">
         <v>2</v>
       </c>
-      <c r="F224" t="s">
-        <v>5</v>
+      <c r="H224" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -4118,7 +4127,13 @@
         <v>230</v>
       </c>
       <c r="B225" t="s">
-        <v>336</v>
+        <v>332</v>
+      </c>
+      <c r="C225" t="s">
+        <v>2</v>
+      </c>
+      <c r="F225" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -4126,10 +4141,7 @@
         <v>231</v>
       </c>
       <c r="B226" t="s">
-        <v>334</v>
-      </c>
-      <c r="D226" t="s">
-        <v>3</v>
+        <v>336</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -4137,10 +4149,10 @@
         <v>232</v>
       </c>
       <c r="B227" t="s">
-        <v>333</v>
-      </c>
-      <c r="C227" t="s">
-        <v>2</v>
+        <v>328</v>
+      </c>
+      <c r="D227" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -4148,13 +4160,10 @@
         <v>233</v>
       </c>
       <c r="B228" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="C228" t="s">
         <v>2</v>
-      </c>
-      <c r="H228" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -4162,13 +4171,13 @@
         <v>234</v>
       </c>
       <c r="B229" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="C229" t="s">
         <v>2</v>
       </c>
-      <c r="F229" t="s">
-        <v>5</v>
+      <c r="H229" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -4176,7 +4185,13 @@
         <v>235</v>
       </c>
       <c r="B230" t="s">
-        <v>330</v>
+        <v>345</v>
+      </c>
+      <c r="C230" t="s">
+        <v>2</v>
+      </c>
+      <c r="F230" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -4184,7 +4199,7 @@
         <v>236</v>
       </c>
       <c r="B231" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -4192,7 +4207,7 @@
         <v>237</v>
       </c>
       <c r="B232" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -4200,7 +4215,7 @@
         <v>238</v>
       </c>
       <c r="B233" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -4208,32 +4223,32 @@
         <v>239</v>
       </c>
       <c r="B234" t="s">
-        <v>329</v>
-      </c>
-      <c r="C234" t="s">
-        <v>2</v>
+        <v>332</v>
       </c>
     </row>
     <row r="235" spans="1:8">
       <c r="A235" t="s">
-        <v>89</v>
+        <v>240</v>
       </c>
       <c r="B235" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="C235" t="s">
         <v>2</v>
-      </c>
-      <c r="F235" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="236" spans="1:8">
       <c r="A236" t="s">
-        <v>240</v>
+        <v>92</v>
       </c>
       <c r="B236" t="s">
-        <v>331</v>
+        <v>332</v>
+      </c>
+      <c r="C236" t="s">
+        <v>2</v>
+      </c>
+      <c r="F236" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -4241,16 +4256,7 @@
         <v>241</v>
       </c>
       <c r="B237" t="s">
-        <v>337</v>
-      </c>
-      <c r="C237" t="s">
-        <v>2</v>
-      </c>
-      <c r="E237" t="s">
-        <v>4</v>
-      </c>
-      <c r="H237" t="s">
-        <v>7</v>
+        <v>333</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -4258,10 +4264,16 @@
         <v>242</v>
       </c>
       <c r="B238" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="C238" t="s">
         <v>2</v>
+      </c>
+      <c r="E238" t="s">
+        <v>4</v>
+      </c>
+      <c r="H238" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -4269,7 +4281,10 @@
         <v>243</v>
       </c>
       <c r="B239" t="s">
-        <v>334</v>
+        <v>333</v>
+      </c>
+      <c r="C239" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -4277,13 +4292,7 @@
         <v>244</v>
       </c>
       <c r="B240" t="s">
-        <v>337</v>
-      </c>
-      <c r="C240" t="s">
-        <v>2</v>
-      </c>
-      <c r="E240" t="s">
-        <v>4</v>
+        <v>328</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -4291,7 +4300,13 @@
         <v>245</v>
       </c>
       <c r="B241" t="s">
-        <v>333</v>
+        <v>337</v>
+      </c>
+      <c r="C241" t="s">
+        <v>2</v>
+      </c>
+      <c r="E241" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -4299,7 +4314,7 @@
         <v>246</v>
       </c>
       <c r="B242" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -4307,10 +4322,7 @@
         <v>247</v>
       </c>
       <c r="B243" t="s">
-        <v>337</v>
-      </c>
-      <c r="C243" t="s">
-        <v>2</v>
+        <v>331</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -4318,13 +4330,10 @@
         <v>248</v>
       </c>
       <c r="B244" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="C244" t="s">
         <v>2</v>
-      </c>
-      <c r="H244" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -4332,13 +4341,13 @@
         <v>249</v>
       </c>
       <c r="B245" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C245" t="s">
         <v>2</v>
       </c>
-      <c r="F245" t="s">
-        <v>5</v>
+      <c r="H245" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -4346,7 +4355,13 @@
         <v>250</v>
       </c>
       <c r="B246" t="s">
-        <v>333</v>
+        <v>328</v>
+      </c>
+      <c r="C246" t="s">
+        <v>2</v>
+      </c>
+      <c r="F246" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -4354,10 +4369,7 @@
         <v>251</v>
       </c>
       <c r="B247" t="s">
-        <v>328</v>
-      </c>
-      <c r="H247" t="s">
-        <v>7</v>
+        <v>330</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -4365,10 +4377,10 @@
         <v>252</v>
       </c>
       <c r="B248" t="s">
-        <v>333</v>
-      </c>
-      <c r="C248" t="s">
-        <v>2</v>
+        <v>331</v>
+      </c>
+      <c r="H248" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -4376,7 +4388,10 @@
         <v>253</v>
       </c>
       <c r="B249" t="s">
-        <v>333</v>
+        <v>330</v>
+      </c>
+      <c r="C249" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -4384,7 +4399,7 @@
         <v>254</v>
       </c>
       <c r="B250" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -4392,7 +4407,7 @@
         <v>255</v>
       </c>
       <c r="B251" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -4400,7 +4415,7 @@
         <v>256</v>
       </c>
       <c r="B252" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -4410,9 +4425,6 @@
       <c r="B253" t="s">
         <v>338</v>
       </c>
-      <c r="H253" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="254" spans="1:8">
       <c r="A254" t="s">
@@ -4430,16 +4442,7 @@
         <v>259</v>
       </c>
       <c r="B255" t="s">
-        <v>333</v>
-      </c>
-      <c r="C255" t="s">
-        <v>2</v>
-      </c>
-      <c r="E255" t="s">
-        <v>4</v>
-      </c>
-      <c r="F255" t="s">
-        <v>5</v>
+        <v>338</v>
       </c>
       <c r="H255" t="s">
         <v>7</v>
@@ -4450,7 +4453,19 @@
         <v>260</v>
       </c>
       <c r="B256" t="s">
-        <v>336</v>
+        <v>330</v>
+      </c>
+      <c r="C256" t="s">
+        <v>2</v>
+      </c>
+      <c r="E256" t="s">
+        <v>4</v>
+      </c>
+      <c r="F256" t="s">
+        <v>5</v>
+      </c>
+      <c r="H256" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="257" spans="1:9">
@@ -4458,7 +4473,7 @@
         <v>261</v>
       </c>
       <c r="B257" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
     </row>
     <row r="258" spans="1:9">
@@ -4466,7 +4481,7 @@
         <v>262</v>
       </c>
       <c r="B258" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="259" spans="1:9">
@@ -4474,13 +4489,7 @@
         <v>263</v>
       </c>
       <c r="B259" t="s">
-        <v>333</v>
-      </c>
-      <c r="C259" t="s">
-        <v>2</v>
-      </c>
-      <c r="H259" t="s">
-        <v>7</v>
+        <v>332</v>
       </c>
     </row>
     <row r="260" spans="1:9">
@@ -4488,10 +4497,13 @@
         <v>264</v>
       </c>
       <c r="B260" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="C260" t="s">
         <v>2</v>
+      </c>
+      <c r="H260" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="261" spans="1:9">
@@ -4499,7 +4511,10 @@
         <v>265</v>
       </c>
       <c r="B261" t="s">
-        <v>338</v>
+        <v>342</v>
+      </c>
+      <c r="C261" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:9">
@@ -4507,26 +4522,26 @@
         <v>266</v>
       </c>
       <c r="B262" t="s">
-        <v>334</v>
-      </c>
-      <c r="C262" t="s">
-        <v>2</v>
-      </c>
-      <c r="H262" t="s">
-        <v>7</v>
+        <v>338</v>
       </c>
     </row>
     <row r="263" spans="1:9">
       <c r="A263" t="s">
-        <v>154</v>
+        <v>267</v>
       </c>
       <c r="B263" t="s">
-        <v>336</v>
+        <v>328</v>
+      </c>
+      <c r="C263" t="s">
+        <v>2</v>
+      </c>
+      <c r="H263" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="264" spans="1:9">
       <c r="A264" t="s">
-        <v>267</v>
+        <v>156</v>
       </c>
       <c r="B264" t="s">
         <v>336</v>
@@ -4537,10 +4552,7 @@
         <v>268</v>
       </c>
       <c r="B265" t="s">
-        <v>333</v>
-      </c>
-      <c r="C265" t="s">
-        <v>2</v>
+        <v>336</v>
       </c>
     </row>
     <row r="266" spans="1:9">
@@ -4548,7 +4560,10 @@
         <v>269</v>
       </c>
       <c r="B266" t="s">
-        <v>333</v>
+        <v>330</v>
+      </c>
+      <c r="C266" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="267" spans="1:9">
@@ -4556,7 +4571,7 @@
         <v>270</v>
       </c>
       <c r="B267" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="268" spans="1:9">
@@ -4564,16 +4579,7 @@
         <v>271</v>
       </c>
       <c r="B268" t="s">
-        <v>331</v>
-      </c>
-      <c r="C268" t="s">
-        <v>2</v>
-      </c>
-      <c r="H268" t="s">
-        <v>7</v>
-      </c>
-      <c r="I268" t="s">
-        <v>8</v>
+        <v>330</v>
       </c>
     </row>
     <row r="269" spans="1:9">
@@ -4581,13 +4587,16 @@
         <v>272</v>
       </c>
       <c r="B269" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="C269" t="s">
         <v>2</v>
       </c>
-      <c r="F269" t="s">
-        <v>5</v>
+      <c r="H269" t="s">
+        <v>7</v>
+      </c>
+      <c r="I269" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="270" spans="1:9">
@@ -4595,10 +4604,13 @@
         <v>273</v>
       </c>
       <c r="B270" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="C270" t="s">
         <v>2</v>
+      </c>
+      <c r="F270" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="271" spans="1:9">
@@ -4606,10 +4618,10 @@
         <v>274</v>
       </c>
       <c r="B271" t="s">
-        <v>333</v>
-      </c>
-      <c r="F271" t="s">
-        <v>5</v>
+        <v>330</v>
+      </c>
+      <c r="C271" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:9">
@@ -4617,7 +4629,7 @@
         <v>275</v>
       </c>
       <c r="B272" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="F272" t="s">
         <v>5</v>
@@ -4628,7 +4640,10 @@
         <v>276</v>
       </c>
       <c r="B273" t="s">
-        <v>342</v>
+        <v>338</v>
+      </c>
+      <c r="F273" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -4644,13 +4659,7 @@
         <v>278</v>
       </c>
       <c r="B275" t="s">
-        <v>337</v>
-      </c>
-      <c r="C275" t="s">
-        <v>2</v>
-      </c>
-      <c r="H275" t="s">
-        <v>7</v>
+        <v>342</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -4658,7 +4667,10 @@
         <v>279</v>
       </c>
       <c r="B276" t="s">
-        <v>343</v>
+        <v>337</v>
+      </c>
+      <c r="C276" t="s">
+        <v>2</v>
       </c>
       <c r="H276" t="s">
         <v>7</v>
@@ -4669,10 +4681,10 @@
         <v>280</v>
       </c>
       <c r="B277" t="s">
-        <v>333</v>
-      </c>
-      <c r="C277" t="s">
-        <v>2</v>
+        <v>343</v>
+      </c>
+      <c r="H277" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -4680,7 +4692,7 @@
         <v>281</v>
       </c>
       <c r="B278" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C278" t="s">
         <v>2</v>
@@ -4691,7 +4703,10 @@
         <v>282</v>
       </c>
       <c r="B279" t="s">
-        <v>333</v>
+        <v>330</v>
+      </c>
+      <c r="C279" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -4699,10 +4714,7 @@
         <v>283</v>
       </c>
       <c r="B280" t="s">
-        <v>334</v>
-      </c>
-      <c r="E280" t="s">
-        <v>4</v>
+        <v>330</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -4710,10 +4722,10 @@
         <v>284</v>
       </c>
       <c r="B281" t="s">
-        <v>338</v>
-      </c>
-      <c r="C281" t="s">
-        <v>2</v>
+        <v>328</v>
+      </c>
+      <c r="E281" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -4723,13 +4735,16 @@
       <c r="B282" t="s">
         <v>338</v>
       </c>
+      <c r="C282" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="283" spans="1:8">
       <c r="A283" t="s">
         <v>286</v>
       </c>
       <c r="B283" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -4737,13 +4752,7 @@
         <v>287</v>
       </c>
       <c r="B284" t="s">
-        <v>331</v>
-      </c>
-      <c r="D284" t="s">
-        <v>3</v>
-      </c>
-      <c r="H284" t="s">
-        <v>7</v>
+        <v>330</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -4751,10 +4760,13 @@
         <v>288</v>
       </c>
       <c r="B285" t="s">
-        <v>334</v>
-      </c>
-      <c r="C285" t="s">
-        <v>2</v>
+        <v>333</v>
+      </c>
+      <c r="D285" t="s">
+        <v>3</v>
+      </c>
+      <c r="H285" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -4764,13 +4776,16 @@
       <c r="B286" t="s">
         <v>328</v>
       </c>
+      <c r="C286" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="287" spans="1:8">
       <c r="A287" t="s">
         <v>290</v>
       </c>
       <c r="B287" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -4778,7 +4793,7 @@
         <v>291</v>
       </c>
       <c r="B288" t="s">
-        <v>344</v>
+        <v>330</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -4794,7 +4809,7 @@
         <v>293</v>
       </c>
       <c r="B290" t="s">
-        <v>332</v>
+        <v>344</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -4802,13 +4817,7 @@
         <v>294</v>
       </c>
       <c r="B291" t="s">
-        <v>344</v>
-      </c>
-      <c r="C291" t="s">
-        <v>2</v>
-      </c>
-      <c r="F291" t="s">
-        <v>5</v>
+        <v>334</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -4816,16 +4825,13 @@
         <v>295</v>
       </c>
       <c r="B292" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="C292" t="s">
         <v>2</v>
       </c>
       <c r="F292" t="s">
         <v>5</v>
-      </c>
-      <c r="H292" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -4833,7 +4839,7 @@
         <v>296</v>
       </c>
       <c r="B293" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="C293" t="s">
         <v>2</v>
@@ -4850,10 +4856,10 @@
         <v>297</v>
       </c>
       <c r="B294" t="s">
-        <v>327</v>
-      </c>
-      <c r="E294" t="s">
-        <v>4</v>
+        <v>343</v>
+      </c>
+      <c r="C294" t="s">
+        <v>2</v>
       </c>
       <c r="F294" t="s">
         <v>5</v>
@@ -4867,7 +4873,16 @@
         <v>298</v>
       </c>
       <c r="B295" t="s">
-        <v>333</v>
+        <v>327</v>
+      </c>
+      <c r="E295" t="s">
+        <v>4</v>
+      </c>
+      <c r="F295" t="s">
+        <v>5</v>
+      </c>
+      <c r="H295" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -4875,7 +4890,7 @@
         <v>299</v>
       </c>
       <c r="B296" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -4883,10 +4898,7 @@
         <v>300</v>
       </c>
       <c r="B297" t="s">
-        <v>333</v>
-      </c>
-      <c r="C297" t="s">
-        <v>2</v>
+        <v>332</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -4894,7 +4906,10 @@
         <v>301</v>
       </c>
       <c r="B298" t="s">
-        <v>342</v>
+        <v>330</v>
+      </c>
+      <c r="C298" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -4902,10 +4917,7 @@
         <v>302</v>
       </c>
       <c r="B299" t="s">
-        <v>334</v>
-      </c>
-      <c r="C299" t="s">
-        <v>2</v>
+        <v>342</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -4913,10 +4925,10 @@
         <v>303</v>
       </c>
       <c r="B300" t="s">
-        <v>338</v>
-      </c>
-      <c r="H300" t="s">
-        <v>7</v>
+        <v>328</v>
+      </c>
+      <c r="C300" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -4924,7 +4936,10 @@
         <v>304</v>
       </c>
       <c r="B301" t="s">
-        <v>328</v>
+        <v>338</v>
+      </c>
+      <c r="H301" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -4940,7 +4955,7 @@
         <v>306</v>
       </c>
       <c r="B303" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -4948,54 +4963,45 @@
         <v>307</v>
       </c>
       <c r="B304" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="305" spans="1:9">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="305" spans="1:8">
       <c r="A305" t="s">
         <v>308</v>
       </c>
       <c r="B305" t="s">
-        <v>329</v>
-      </c>
-      <c r="C305" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="306" spans="1:9">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="306" spans="1:8">
       <c r="A306" t="s">
         <v>309</v>
       </c>
       <c r="B306" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C306" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="307" spans="1:9">
+    <row r="307" spans="1:8">
       <c r="A307" t="s">
         <v>310</v>
       </c>
       <c r="B307" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C307" t="s">
         <v>2</v>
       </c>
-      <c r="F307" t="s">
-        <v>5</v>
-      </c>
-      <c r="H307" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="308" spans="1:9">
+    </row>
+    <row r="308" spans="1:8">
       <c r="A308" t="s">
         <v>311</v>
       </c>
       <c r="B308" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="C308" t="s">
         <v>2</v>
@@ -5007,32 +5013,38 @@
         <v>7</v>
       </c>
     </row>
-    <row r="309" spans="1:9">
+    <row r="309" spans="1:8">
       <c r="A309" t="s">
         <v>312</v>
       </c>
       <c r="B309" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C309" t="s">
         <v>2</v>
       </c>
-      <c r="E309" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="310" spans="1:9">
+      <c r="F309" t="s">
+        <v>5</v>
+      </c>
+      <c r="H309" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="310" spans="1:8">
       <c r="A310" t="s">
         <v>313</v>
       </c>
       <c r="B310" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="C310" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="311" spans="1:9">
+      <c r="E310" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="311" spans="1:8">
       <c r="A311" t="s">
         <v>314</v>
       </c>
@@ -5043,82 +5055,70 @@
         <v>2</v>
       </c>
     </row>
-    <row r="312" spans="1:9">
+    <row r="312" spans="1:8">
       <c r="A312" t="s">
         <v>315</v>
       </c>
       <c r="B312" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="C312" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="313" spans="1:9">
+    <row r="313" spans="1:8">
       <c r="A313" t="s">
         <v>316</v>
       </c>
       <c r="B313" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="314" spans="1:9">
+        <v>342</v>
+      </c>
+      <c r="C313" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="314" spans="1:8">
       <c r="A314" t="s">
         <v>317</v>
       </c>
       <c r="B314" t="s">
-        <v>329</v>
-      </c>
-      <c r="C314" t="s">
-        <v>2</v>
-      </c>
-      <c r="F314" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="315" spans="1:9">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="315" spans="1:8">
       <c r="A315" t="s">
         <v>318</v>
       </c>
       <c r="B315" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="C315" t="s">
         <v>2</v>
       </c>
-      <c r="E315" t="s">
-        <v>4</v>
-      </c>
       <c r="F315" t="s">
         <v>5</v>
       </c>
-      <c r="H315" t="s">
-        <v>7</v>
-      </c>
-      <c r="I315" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="316" spans="1:9">
+    </row>
+    <row r="316" spans="1:8">
       <c r="A316" t="s">
         <v>319</v>
       </c>
       <c r="B316" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="C316" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="317" spans="1:9">
+    <row r="317" spans="1:8">
       <c r="A317" t="s">
         <v>320</v>
       </c>
       <c r="B317" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="318" spans="1:9">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="318" spans="1:8">
       <c r="A318" t="s">
         <v>321</v>
       </c>
@@ -5129,23 +5129,23 @@
         <v>2</v>
       </c>
     </row>
-    <row r="319" spans="1:9">
+    <row r="319" spans="1:8">
       <c r="A319" t="s">
         <v>322</v>
       </c>
       <c r="B319" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="C319" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="320" spans="1:9">
+    <row r="320" spans="1:8">
       <c r="A320" t="s">
         <v>323</v>
       </c>
       <c r="B320" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
     </row>
     <row r="321" spans="1:3">
@@ -5153,7 +5153,7 @@
         <v>324</v>
       </c>
       <c r="B321" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
     </row>
     <row r="322" spans="1:3">
@@ -5161,7 +5161,7 @@
         <v>325</v>
       </c>
       <c r="B322" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C322" t="s">
         <v>2</v>
@@ -5172,7 +5172,7 @@
         <v>326</v>
       </c>
       <c r="B323" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
   </sheetData>

--- a/resources/implementation_names.xlsx
+++ b/resources/implementation_names.xlsx
@@ -46,933 +46,933 @@
     <t>Activiti</t>
   </si>
   <si>
+    <t>airbyte</t>
+  </si>
+  <si>
+    <t>airsonic</t>
+  </si>
+  <si>
+    <t>spring-cloud-alibaba</t>
+  </si>
+  <si>
+    <t>nacos</t>
+  </si>
+  <si>
+    <t>alluxio</t>
+  </si>
+  <si>
+    <t>VirtualXposed</t>
+  </si>
+  <si>
+    <t>angel</t>
+  </si>
+  <si>
+    <t>Anki-Android</t>
+  </si>
+  <si>
+    <t>AntennaPod</t>
+  </si>
+  <si>
+    <t>AnySoftKeyboard</t>
+  </si>
+  <si>
+    <t>cyclops</t>
+  </si>
+  <si>
+    <t>dubbo</t>
+  </si>
+  <si>
+    <t>kafka</t>
+  </si>
+  <si>
     <t>skywalking</t>
   </si>
   <si>
+    <t>hadoop</t>
+  </si>
+  <si>
+    <t>rocketmq</t>
+  </si>
+  <si>
+    <t>shardingsphere-elasticjob</t>
+  </si>
+  <si>
+    <t>zookeeper</t>
+  </si>
+  <si>
     <t>storm</t>
   </si>
   <si>
+    <t>incubator-dolphinscheduler</t>
+  </si>
+  <si>
+    <t>zeppelin</t>
+  </si>
+  <si>
+    <t>pulsar</t>
+  </si>
+  <si>
+    <t>tomcat</t>
+  </si>
+  <si>
+    <t>incubator-heron</t>
+  </si>
+  <si>
+    <t>jmeter</t>
+  </si>
+  <si>
+    <t>beam</t>
+  </si>
+  <si>
+    <t>incubator-pinot</t>
+  </si>
+  <si>
+    <t>nutch</t>
+  </si>
+  <si>
+    <t>hudi</t>
+  </si>
+  <si>
+    <t>servicecomb-pack</t>
+  </si>
+  <si>
+    <t>maven</t>
+  </si>
+  <si>
+    <t>flume</t>
+  </si>
+  <si>
+    <t>mahout</t>
+  </si>
+  <si>
+    <t>nifi</t>
+  </si>
+  <si>
+    <t>activemq</t>
+  </si>
+  <si>
+    <t>avro</t>
+  </si>
+  <si>
+    <t>iceberg</t>
+  </si>
+  <si>
+    <t>parquet-mr</t>
+  </si>
+  <si>
+    <t>bookkeeper</t>
+  </si>
+  <si>
+    <t>ambari</t>
+  </si>
+  <si>
+    <t>tika</t>
+  </si>
+  <si>
+    <t>netbeans</t>
+  </si>
+  <si>
+    <t>httpcomponents-client</t>
+  </si>
+  <si>
+    <t>cas</t>
+  </si>
+  <si>
+    <t>Arduino</t>
+  </si>
+  <si>
+    <t>AsciidocFX</t>
+  </si>
+  <si>
+    <t>commafeed</t>
+  </si>
+  <si>
+    <t>simplenote-android</t>
+  </si>
+  <si>
+    <t>azkaban</t>
+  </si>
+  <si>
+    <t>mybatis-plus</t>
+  </si>
+  <si>
+    <t>bazel</t>
+  </si>
+  <si>
+    <t>bc-java</t>
+  </si>
+  <si>
+    <t>bigbluebutton</t>
+  </si>
+  <si>
+    <t>bisq</t>
+  </si>
+  <si>
+    <t>bitcoin-wallet</t>
+  </si>
+  <si>
+    <t>keepassdroid</t>
+  </si>
+  <si>
+    <t>gatk</t>
+  </si>
+  <si>
+    <t>btrace</t>
+  </si>
+  <si>
+    <t>portfolio</t>
+  </si>
+  <si>
+    <t>BuildCraft</t>
+  </si>
+  <si>
+    <t>Bukkit</t>
+  </si>
+  <si>
+    <t>baritone</t>
+  </si>
+  <si>
+    <t>zeebe</t>
+  </si>
+  <si>
+    <t>Slide</t>
+  </si>
+  <si>
+    <t>Android-IMSI-Catcher-Detector</t>
+  </si>
+  <si>
+    <t>cgeo</t>
+  </si>
+  <si>
+    <t>checkstyle</t>
+  </si>
+  <si>
+    <t>material-theme-jetbrains</t>
+  </si>
+  <si>
+    <t>libsvm</t>
+  </si>
+  <si>
+    <t>lucida</t>
+  </si>
+  <si>
+    <t>classgraph</t>
+  </si>
+  <si>
+    <t>uaa</t>
+  </si>
+  <si>
+    <t>spring-boot-admin</t>
+  </si>
+  <si>
+    <t>gnucash-android</t>
+  </si>
+  <si>
+    <t>Recaf</t>
+  </si>
+  <si>
+    <t>schema-registry</t>
+  </si>
+  <si>
+    <t>kafka-rest</t>
+  </si>
+  <si>
+    <t>connectbot</t>
+  </si>
+  <si>
+    <t>cryptomator</t>
+  </si>
+  <si>
+    <t>android</t>
+  </si>
+  <si>
+    <t>apollo</t>
+  </si>
+  <si>
+    <t>cucumber-jvm</t>
+  </si>
+  <si>
+    <t>dbeaver</t>
+  </si>
+  <si>
+    <t>debezium</t>
+  </si>
+  <si>
+    <t>dl4j-examples</t>
+  </si>
+  <si>
+    <t>spotless</t>
+  </si>
+  <si>
+    <t>docker-java</t>
+  </si>
+  <si>
+    <t>soul</t>
+  </si>
+  <si>
+    <t>ebean</t>
+  </si>
+  <si>
     <t>che</t>
   </si>
   <si>
+    <t>jetty.project</t>
+  </si>
+  <si>
+    <t>openj9</t>
+  </si>
+  <si>
+    <t>vert.x</t>
+  </si>
+  <si>
+    <t>ehcache3</t>
+  </si>
+  <si>
+    <t>elasticsearch-hadoop</t>
+  </si>
+  <si>
+    <t>embulk</t>
+  </si>
+  <si>
+    <t>WorldEdit</t>
+  </si>
+  <si>
+    <t>eclim</t>
+  </si>
+  <si>
+    <t>Etar-Calendar</t>
+  </si>
+  <si>
+    <t>docker-maven-plugin</t>
+  </si>
+  <si>
+    <t>buck</t>
+  </si>
+  <si>
+    <t>jackson-databind</t>
+  </si>
+  <si>
+    <t>jackson-core</t>
+  </si>
+  <si>
+    <t>Omni-Notes</t>
+  </si>
+  <si>
+    <t>find-sec-bugs</t>
+  </si>
+  <si>
+    <t>search-guard</t>
+  </si>
+  <si>
+    <t>flowable-engine</t>
+  </si>
+  <si>
+    <t>flutter-intellij</t>
+  </si>
+  <si>
+    <t>flyway</t>
+  </si>
+  <si>
+    <t>open-event-organizer-android</t>
+  </si>
+  <si>
+    <t>susi_server</t>
+  </si>
+  <si>
+    <t>phimpme-android</t>
+  </si>
+  <si>
+    <t>pslab-android</t>
+  </si>
+  <si>
+    <t>Gadgetbridge</t>
+  </si>
+  <si>
+    <t>FBReaderJ</t>
+  </si>
+  <si>
+    <t>geoserver</t>
+  </si>
+  <si>
+    <t>gephi</t>
+  </si>
+  <si>
+    <t>Geyser</t>
+  </si>
+  <si>
+    <t>git-commit-id-maven-plugin</t>
+  </si>
+  <si>
+    <t>gitblit</t>
+  </si>
+  <si>
+    <t>Glowstone</t>
+  </si>
+  <si>
+    <t>guacamole-client</t>
+  </si>
+  <si>
+    <t>gocd</t>
+  </si>
+  <si>
+    <t>ExoPlayer</t>
+  </si>
+  <si>
+    <t>j2objc</t>
+  </si>
+  <si>
+    <t>error-prone</t>
+  </si>
+  <si>
+    <t>nomulus</t>
+  </si>
+  <si>
+    <t>copybara</t>
+  </si>
+  <si>
+    <t>jib</t>
+  </si>
+  <si>
+    <t>graphhopper</t>
+  </si>
+  <si>
+    <t>jsprit</t>
+  </si>
+  <si>
+    <t>gravitee-gateway</t>
+  </si>
+  <si>
+    <t>graylog2-server</t>
+  </si>
+  <si>
+    <t>markor</t>
+  </si>
+  <si>
+    <t>h2o-3</t>
+  </si>
+  <si>
+    <t>smile</t>
+  </si>
+  <si>
+    <t>hawtio</t>
+  </si>
+  <si>
+    <t>pitest</t>
+  </si>
+  <si>
+    <t>materialistic</t>
+  </si>
+  <si>
+    <t>Digital</t>
+  </si>
+  <si>
+    <t>HMCL</t>
+  </si>
+  <si>
+    <t>i2p.i2p</t>
+  </si>
+  <si>
+    <t>Apktool</t>
+  </si>
+  <si>
+    <t>Openfire</t>
+  </si>
+  <si>
+    <t>Conversations</t>
+  </si>
+  <si>
+    <t>heritrix3</t>
+  </si>
+  <si>
+    <t>iri</t>
+  </si>
+  <si>
+    <t>uhabits</t>
+  </si>
+  <si>
+    <t>cyberduck</t>
+  </si>
+  <si>
+    <t>jabref</t>
+  </si>
+  <si>
+    <t>mockserver</t>
+  </si>
+  <si>
+    <t>mapdb</t>
+  </si>
+  <si>
+    <t>javamelody</t>
+  </si>
+  <si>
+    <t>sms-backup-plus</t>
+  </si>
+  <si>
+    <t>jenkins</t>
+  </si>
+  <si>
+    <t>blueocean-plugin</t>
+  </si>
+  <si>
+    <t>kubernetes-plugin</t>
+  </si>
+  <si>
+    <t>gitlab-plugin</t>
+  </si>
+  <si>
+    <t>DependencyCheck</t>
+  </si>
+  <si>
+    <t>smali</t>
+  </si>
+  <si>
+    <t>intellij-community</t>
+  </si>
+  <si>
+    <t>ideavim</t>
+  </si>
+  <si>
+    <t>MPS</t>
+  </si>
+  <si>
+    <t>jpexs-decompiler</t>
+  </si>
+  <si>
+    <t>jitsi-videobridge</t>
+  </si>
+  <si>
+    <t>jitsi</t>
+  </si>
+  <si>
+    <t>zotfile</t>
+  </si>
+  <si>
+    <t>jmonkeyengine</t>
+  </si>
+  <si>
+    <t>jmxtrans</t>
+  </si>
+  <si>
+    <t>jsonschema2pojo</t>
+  </si>
+  <si>
+    <t>JSqlParser</t>
+  </si>
+  <si>
+    <t>tablesaw</t>
+  </si>
+  <si>
+    <t>FastHub</t>
+  </si>
+  <si>
+    <t>k-9</t>
+  </si>
+  <si>
+    <t>kaa</t>
+  </si>
+  <si>
+    <t>Phonograph</t>
+  </si>
+  <si>
+    <t>phpinspectionsea</t>
+  </si>
+  <si>
+    <t>grobid</t>
+  </si>
+  <si>
+    <t>keycloak</t>
+  </si>
+  <si>
+    <t>android-oss</t>
+  </si>
+  <si>
+    <t>drools</t>
+  </si>
+  <si>
+    <t>optaplanner</t>
+  </si>
+  <si>
+    <t>jbpm</t>
+  </si>
+  <si>
+    <t>killbill</t>
+  </si>
+  <si>
+    <t>intellij-elixir</t>
+  </si>
+  <si>
+    <t>languagetool</t>
+  </si>
+  <si>
+    <t>Lawnchair</t>
+  </si>
+  <si>
+    <t>lbry-android</t>
+  </si>
+  <si>
+    <t>liferay-portal</t>
+  </si>
+  <si>
+    <t>ambry</t>
+  </si>
+  <si>
+    <t>liquibase</t>
+  </si>
+  <si>
+    <t>LuckPerms</t>
+  </si>
+  <si>
+    <t>NetGuard</t>
+  </si>
+  <si>
+    <t>mage</t>
+  </si>
+  <si>
+    <t>mapstruct</t>
+  </si>
+  <si>
+    <t>marytts</t>
+  </si>
+  <si>
+    <t>material-components-android</t>
+  </si>
+  <si>
+    <t>gpslogger</t>
+  </si>
+  <si>
+    <t>micrometer</t>
+  </si>
+  <si>
+    <t>malmo</t>
+  </si>
+  <si>
+    <t>MinecraftForge</t>
+  </si>
+  <si>
+    <t>OpenID-Connect-Java-Spring-Server</t>
+  </si>
+  <si>
+    <t>qksms</t>
+  </si>
+  <si>
+    <t>Terasology</t>
+  </si>
+  <si>
+    <t>focus-android</t>
+  </si>
+  <si>
+    <t>msgpack-java</t>
+  </si>
+  <si>
     <t>pinpoint</t>
   </si>
   <si>
+    <t>ngrinder</t>
+  </si>
+  <si>
+    <t>KISS</t>
+  </si>
+  <si>
+    <t>eureka</t>
+  </si>
+  <si>
+    <t>conductor</t>
+  </si>
+  <si>
+    <t>genie</t>
+  </si>
+  <si>
+    <t>cqengine</t>
+  </si>
+  <si>
+    <t>open-keychain</t>
+  </si>
+  <si>
+    <t>openapi-generator</t>
+  </si>
+  <si>
+    <t>Chronicle-Queue</t>
+  </si>
+  <si>
+    <t>Chronicle-Map</t>
+  </si>
+  <si>
+    <t>OpenRefine</t>
+  </si>
+  <si>
+    <t>BIMserver</t>
+  </si>
+  <si>
+    <t>OpenTripPlanner</t>
+  </si>
+  <si>
+    <t>openvidu</t>
+  </si>
+  <si>
+    <t>zipkin</t>
+  </si>
+  <si>
+    <t>opengrok</t>
+  </si>
+  <si>
+    <t>visualvm</t>
+  </si>
+  <si>
+    <t>orgzly-android</t>
+  </si>
+  <si>
+    <t>oryx</t>
+  </si>
+  <si>
+    <t>oshi</t>
+  </si>
+  <si>
+    <t>OsmAnd</t>
+  </si>
+  <si>
+    <t>Osmand</t>
+  </si>
+  <si>
+    <t>osmdroid</t>
+  </si>
+  <si>
+    <t>pac4j</t>
+  </si>
+  <si>
+    <t>pentaho-kettle</t>
+  </si>
+  <si>
+    <t>keepass2android</t>
+  </si>
+  <si>
+    <t>secor</t>
+  </si>
+  <si>
+    <t>pmd</t>
+  </si>
+  <si>
+    <t>PocketHub</t>
+  </si>
+  <si>
+    <t>pravega</t>
+  </si>
+  <si>
+    <t>presto</t>
+  </si>
+  <si>
+    <t>processing</t>
+  </si>
+  <si>
+    <t>psi-probe</t>
+  </si>
+  <si>
+    <t>storio</t>
+  </si>
+  <si>
+    <t>serve</t>
+  </si>
+  <si>
+    <t>slf4j</t>
+  </si>
+  <si>
+    <t>RedReader</t>
+  </si>
+  <si>
+    <t>quran_android</t>
+  </si>
+  <si>
+    <t>Rajawali</t>
+  </si>
+  <si>
+    <t>reactor-netty</t>
+  </si>
+  <si>
+    <t>aeron</t>
+  </si>
+  <si>
+    <t>simple-binary-encoding</t>
+  </si>
+  <si>
+    <t>redisson</t>
+  </si>
+  <si>
+    <t>xabber-android</t>
+  </si>
+  <si>
+    <t>rest-assured</t>
+  </si>
+  <si>
+    <t>ripme</t>
+  </si>
+  <si>
+    <t>rstudio</t>
+  </si>
+  <si>
+    <t>runelite</t>
+  </si>
+  <si>
+    <t>ics-openvpn</t>
+  </si>
+  <si>
+    <t>scouter</t>
+  </si>
+  <si>
+    <t>Signal-Android</t>
+  </si>
+  <si>
+    <t>android-maven-plugin</t>
+  </si>
+  <si>
+    <t>jadx</t>
+  </si>
+  <si>
+    <t>gh4a</t>
+  </si>
+  <si>
+    <t>autopsy</t>
+  </si>
+  <si>
+    <t>sonarqube</t>
+  </si>
+  <si>
+    <t>nokogiri</t>
+  </si>
+  <si>
+    <t>speedment</t>
+  </si>
+  <si>
+    <t>BungeeCord</t>
+  </si>
+  <si>
+    <t>SpongeAPI</t>
+  </si>
+  <si>
+    <t>SpongeForge</t>
+  </si>
+  <si>
+    <t>spotbugs</t>
+  </si>
+  <si>
+    <t>helios</t>
+  </si>
+  <si>
+    <t>spring-cloud-netflix</t>
+  </si>
+  <si>
+    <t>spring-cloud-gateway</t>
+  </si>
+  <si>
+    <t>spring-cloud-config</t>
+  </si>
+  <si>
+    <t>spring-cloud-sleuth</t>
+  </si>
+  <si>
+    <t>okhttp</t>
+  </si>
+  <si>
+    <t>retrofit</t>
+  </si>
+  <si>
+    <t>wire</t>
+  </si>
+  <si>
+    <t>keywhiz</t>
+  </si>
+  <si>
+    <t>stagemonitor</t>
+  </si>
+  <si>
+    <t>strimzi-kafka-operator</t>
+  </si>
+  <si>
+    <t>swagger-core</t>
+  </si>
+  <si>
+    <t>syncany</t>
+  </si>
+  <si>
+    <t>syncthing-android</t>
+  </si>
+  <si>
+    <t>synthea</t>
+  </si>
+  <si>
+    <t>AmazeFileManager</t>
+  </si>
+  <si>
+    <t>teammates</t>
+  </si>
+  <si>
+    <t>onedev</t>
+  </si>
+  <si>
+    <t>thingsboard</t>
+  </si>
+  <si>
+    <t>thymeleaf</t>
+  </si>
+  <si>
+    <t>Shuttle</t>
+  </si>
+  <si>
+    <t>wiremock</t>
+  </si>
+  <si>
+    <t>amidst</t>
+  </si>
+  <si>
+    <t>traccar</t>
+  </si>
+  <si>
+    <t>java-tron</t>
+  </si>
+  <si>
+    <t>beakerx</t>
+  </si>
+  <si>
+    <t>afwall</t>
+  </si>
+  <si>
+    <t>undertow</t>
+  </si>
+  <si>
+    <t>LeafPic</t>
+  </si>
+  <si>
+    <t>UniversalMediaServer</t>
+  </si>
+  <si>
+    <t>validator</t>
+  </si>
+  <si>
+    <t>modeldb</t>
+  </si>
+  <si>
+    <t>vespa</t>
+  </si>
+  <si>
+    <t>Saturn</t>
+  </si>
+  <si>
+    <t>flexmark-java</t>
+  </si>
+  <si>
+    <t>epubcheck</t>
+  </si>
+  <si>
+    <t>dynmap</t>
+  </si>
+  <si>
+    <t>StreetComplete</t>
+  </si>
+  <si>
+    <t>apps-android-wikipedia</t>
+  </si>
+  <si>
     <t>wildfly</t>
   </si>
   <si>
-    <t>airbyte</t>
-  </si>
-  <si>
-    <t>airsonic</t>
-  </si>
-  <si>
-    <t>spring-cloud-alibaba</t>
-  </si>
-  <si>
-    <t>nacos</t>
-  </si>
-  <si>
-    <t>alluxio</t>
-  </si>
-  <si>
-    <t>VirtualXposed</t>
-  </si>
-  <si>
-    <t>angel</t>
-  </si>
-  <si>
-    <t>Anki-Android</t>
-  </si>
-  <si>
-    <t>AntennaPod</t>
-  </si>
-  <si>
-    <t>AnySoftKeyboard</t>
-  </si>
-  <si>
-    <t>cyclops</t>
-  </si>
-  <si>
-    <t>dubbo</t>
-  </si>
-  <si>
-    <t>kafka</t>
-  </si>
-  <si>
-    <t>hadoop</t>
-  </si>
-  <si>
-    <t>rocketmq</t>
-  </si>
-  <si>
-    <t>shardingsphere-elasticjob</t>
-  </si>
-  <si>
-    <t>zookeeper</t>
-  </si>
-  <si>
-    <t>incubator-dolphinscheduler</t>
-  </si>
-  <si>
-    <t>zeppelin</t>
-  </si>
-  <si>
-    <t>pulsar</t>
-  </si>
-  <si>
-    <t>tomcat</t>
-  </si>
-  <si>
-    <t>incubator-heron</t>
-  </si>
-  <si>
-    <t>jmeter</t>
-  </si>
-  <si>
-    <t>beam</t>
-  </si>
-  <si>
-    <t>incubator-pinot</t>
-  </si>
-  <si>
-    <t>nutch</t>
-  </si>
-  <si>
-    <t>hudi</t>
-  </si>
-  <si>
-    <t>servicecomb-pack</t>
-  </si>
-  <si>
-    <t>maven</t>
-  </si>
-  <si>
-    <t>flume</t>
-  </si>
-  <si>
-    <t>mahout</t>
-  </si>
-  <si>
-    <t>nifi</t>
-  </si>
-  <si>
-    <t>activemq</t>
-  </si>
-  <si>
-    <t>avro</t>
-  </si>
-  <si>
-    <t>iceberg</t>
-  </si>
-  <si>
-    <t>parquet-mr</t>
-  </si>
-  <si>
-    <t>bookkeeper</t>
-  </si>
-  <si>
-    <t>ambari</t>
-  </si>
-  <si>
-    <t>tika</t>
-  </si>
-  <si>
-    <t>netbeans</t>
-  </si>
-  <si>
-    <t>httpcomponents-client</t>
-  </si>
-  <si>
-    <t>cas</t>
-  </si>
-  <si>
-    <t>Arduino</t>
-  </si>
-  <si>
-    <t>AsciidocFX</t>
-  </si>
-  <si>
-    <t>commafeed</t>
-  </si>
-  <si>
-    <t>simplenote-android</t>
-  </si>
-  <si>
-    <t>azkaban</t>
-  </si>
-  <si>
-    <t>mybatis-plus</t>
-  </si>
-  <si>
-    <t>bazel</t>
-  </si>
-  <si>
-    <t>bc-java</t>
-  </si>
-  <si>
-    <t>bigbluebutton</t>
-  </si>
-  <si>
-    <t>bisq</t>
-  </si>
-  <si>
-    <t>bitcoin-wallet</t>
-  </si>
-  <si>
-    <t>keepassdroid</t>
-  </si>
-  <si>
-    <t>gatk</t>
-  </si>
-  <si>
-    <t>btrace</t>
-  </si>
-  <si>
-    <t>portfolio</t>
-  </si>
-  <si>
-    <t>BuildCraft</t>
-  </si>
-  <si>
-    <t>Bukkit</t>
-  </si>
-  <si>
-    <t>baritone</t>
-  </si>
-  <si>
-    <t>zeebe</t>
-  </si>
-  <si>
-    <t>Slide</t>
-  </si>
-  <si>
-    <t>Android-IMSI-Catcher-Detector</t>
-  </si>
-  <si>
-    <t>cgeo</t>
-  </si>
-  <si>
-    <t>checkstyle</t>
-  </si>
-  <si>
-    <t>material-theme-jetbrains</t>
-  </si>
-  <si>
-    <t>libsvm</t>
-  </si>
-  <si>
-    <t>lucida</t>
-  </si>
-  <si>
-    <t>classgraph</t>
-  </si>
-  <si>
-    <t>uaa</t>
-  </si>
-  <si>
-    <t>spring-boot-admin</t>
-  </si>
-  <si>
-    <t>gnucash-android</t>
-  </si>
-  <si>
-    <t>Recaf</t>
-  </si>
-  <si>
-    <t>schema-registry</t>
-  </si>
-  <si>
-    <t>kafka-rest</t>
-  </si>
-  <si>
-    <t>connectbot</t>
-  </si>
-  <si>
-    <t>cryptomator</t>
-  </si>
-  <si>
-    <t>android</t>
-  </si>
-  <si>
-    <t>apollo</t>
-  </si>
-  <si>
-    <t>cucumber-jvm</t>
-  </si>
-  <si>
-    <t>dbeaver</t>
-  </si>
-  <si>
-    <t>debezium</t>
-  </si>
-  <si>
-    <t>dl4j-examples</t>
-  </si>
-  <si>
-    <t>spotless</t>
-  </si>
-  <si>
-    <t>docker-java</t>
-  </si>
-  <si>
-    <t>soul</t>
-  </si>
-  <si>
-    <t>ebean</t>
-  </si>
-  <si>
-    <t>jetty.project</t>
-  </si>
-  <si>
-    <t>openj9</t>
-  </si>
-  <si>
-    <t>vert.x</t>
-  </si>
-  <si>
-    <t>ehcache3</t>
-  </si>
-  <si>
-    <t>elasticsearch-hadoop</t>
-  </si>
-  <si>
-    <t>embulk</t>
-  </si>
-  <si>
-    <t>WorldEdit</t>
-  </si>
-  <si>
-    <t>eclim</t>
-  </si>
-  <si>
-    <t>Etar-Calendar</t>
-  </si>
-  <si>
-    <t>docker-maven-plugin</t>
-  </si>
-  <si>
-    <t>buck</t>
-  </si>
-  <si>
-    <t>jackson-databind</t>
-  </si>
-  <si>
-    <t>jackson-core</t>
-  </si>
-  <si>
-    <t>Omni-Notes</t>
-  </si>
-  <si>
-    <t>find-sec-bugs</t>
-  </si>
-  <si>
-    <t>search-guard</t>
-  </si>
-  <si>
-    <t>flowable-engine</t>
-  </si>
-  <si>
-    <t>flutter-intellij</t>
-  </si>
-  <si>
-    <t>flyway</t>
-  </si>
-  <si>
-    <t>open-event-organizer-android</t>
-  </si>
-  <si>
-    <t>susi_server</t>
-  </si>
-  <si>
-    <t>phimpme-android</t>
-  </si>
-  <si>
-    <t>pslab-android</t>
-  </si>
-  <si>
-    <t>Gadgetbridge</t>
-  </si>
-  <si>
-    <t>FBReaderJ</t>
-  </si>
-  <si>
-    <t>geoserver</t>
-  </si>
-  <si>
-    <t>gephi</t>
-  </si>
-  <si>
-    <t>Geyser</t>
-  </si>
-  <si>
-    <t>git-commit-id-maven-plugin</t>
-  </si>
-  <si>
-    <t>gitblit</t>
-  </si>
-  <si>
-    <t>Glowstone</t>
-  </si>
-  <si>
-    <t>guacamole-client</t>
-  </si>
-  <si>
-    <t>gocd</t>
-  </si>
-  <si>
-    <t>ExoPlayer</t>
-  </si>
-  <si>
-    <t>j2objc</t>
-  </si>
-  <si>
-    <t>error-prone</t>
-  </si>
-  <si>
-    <t>nomulus</t>
-  </si>
-  <si>
-    <t>copybara</t>
-  </si>
-  <si>
-    <t>jib</t>
-  </si>
-  <si>
-    <t>graphhopper</t>
-  </si>
-  <si>
-    <t>jsprit</t>
-  </si>
-  <si>
-    <t>gravitee-gateway</t>
-  </si>
-  <si>
-    <t>graylog2-server</t>
-  </si>
-  <si>
-    <t>markor</t>
-  </si>
-  <si>
-    <t>h2o-3</t>
-  </si>
-  <si>
-    <t>smile</t>
-  </si>
-  <si>
-    <t>hawtio</t>
-  </si>
-  <si>
-    <t>pitest</t>
-  </si>
-  <si>
-    <t>materialistic</t>
-  </si>
-  <si>
-    <t>Digital</t>
-  </si>
-  <si>
-    <t>HMCL</t>
-  </si>
-  <si>
-    <t>i2p.i2p</t>
-  </si>
-  <si>
-    <t>Apktool</t>
-  </si>
-  <si>
-    <t>Openfire</t>
-  </si>
-  <si>
-    <t>Conversations</t>
-  </si>
-  <si>
-    <t>heritrix3</t>
-  </si>
-  <si>
-    <t>iri</t>
-  </si>
-  <si>
-    <t>uhabits</t>
-  </si>
-  <si>
-    <t>cyberduck</t>
-  </si>
-  <si>
-    <t>jabref</t>
-  </si>
-  <si>
-    <t>mockserver</t>
-  </si>
-  <si>
-    <t>mapdb</t>
-  </si>
-  <si>
-    <t>javamelody</t>
-  </si>
-  <si>
-    <t>sms-backup-plus</t>
-  </si>
-  <si>
-    <t>jenkins</t>
-  </si>
-  <si>
-    <t>blueocean-plugin</t>
-  </si>
-  <si>
-    <t>kubernetes-plugin</t>
-  </si>
-  <si>
-    <t>gitlab-plugin</t>
-  </si>
-  <si>
-    <t>DependencyCheck</t>
-  </si>
-  <si>
-    <t>smali</t>
-  </si>
-  <si>
-    <t>intellij-community</t>
-  </si>
-  <si>
-    <t>ideavim</t>
-  </si>
-  <si>
-    <t>MPS</t>
-  </si>
-  <si>
-    <t>jpexs-decompiler</t>
-  </si>
-  <si>
-    <t>jitsi-videobridge</t>
-  </si>
-  <si>
-    <t>jitsi</t>
-  </si>
-  <si>
-    <t>zotfile</t>
-  </si>
-  <si>
-    <t>jmonkeyengine</t>
-  </si>
-  <si>
-    <t>jmxtrans</t>
-  </si>
-  <si>
-    <t>jsonschema2pojo</t>
-  </si>
-  <si>
-    <t>JSqlParser</t>
-  </si>
-  <si>
-    <t>tablesaw</t>
-  </si>
-  <si>
-    <t>FastHub</t>
-  </si>
-  <si>
-    <t>k-9</t>
-  </si>
-  <si>
-    <t>kaa</t>
-  </si>
-  <si>
-    <t>Phonograph</t>
-  </si>
-  <si>
-    <t>phpinspectionsea</t>
-  </si>
-  <si>
-    <t>grobid</t>
-  </si>
-  <si>
-    <t>keycloak</t>
-  </si>
-  <si>
-    <t>android-oss</t>
-  </si>
-  <si>
-    <t>drools</t>
-  </si>
-  <si>
-    <t>optaplanner</t>
-  </si>
-  <si>
-    <t>jbpm</t>
-  </si>
-  <si>
-    <t>killbill</t>
-  </si>
-  <si>
-    <t>intellij-elixir</t>
-  </si>
-  <si>
-    <t>languagetool</t>
-  </si>
-  <si>
-    <t>Lawnchair</t>
-  </si>
-  <si>
-    <t>lbry-android</t>
-  </si>
-  <si>
-    <t>liferay-portal</t>
-  </si>
-  <si>
-    <t>ambry</t>
-  </si>
-  <si>
-    <t>liquibase</t>
-  </si>
-  <si>
-    <t>LuckPerms</t>
-  </si>
-  <si>
-    <t>NetGuard</t>
-  </si>
-  <si>
-    <t>mage</t>
-  </si>
-  <si>
-    <t>mapstruct</t>
-  </si>
-  <si>
-    <t>marytts</t>
-  </si>
-  <si>
-    <t>material-components-android</t>
-  </si>
-  <si>
-    <t>gpslogger</t>
-  </si>
-  <si>
-    <t>micrometer</t>
-  </si>
-  <si>
-    <t>malmo</t>
-  </si>
-  <si>
-    <t>MinecraftForge</t>
-  </si>
-  <si>
-    <t>OpenID-Connect-Java-Spring-Server</t>
-  </si>
-  <si>
-    <t>qksms</t>
-  </si>
-  <si>
-    <t>Terasology</t>
-  </si>
-  <si>
-    <t>focus-android</t>
-  </si>
-  <si>
-    <t>msgpack-java</t>
-  </si>
-  <si>
-    <t>ngrinder</t>
-  </si>
-  <si>
-    <t>KISS</t>
-  </si>
-  <si>
-    <t>eureka</t>
-  </si>
-  <si>
-    <t>conductor</t>
-  </si>
-  <si>
-    <t>genie</t>
-  </si>
-  <si>
-    <t>cqengine</t>
-  </si>
-  <si>
-    <t>open-keychain</t>
-  </si>
-  <si>
-    <t>openapi-generator</t>
-  </si>
-  <si>
-    <t>Chronicle-Queue</t>
-  </si>
-  <si>
-    <t>Chronicle-Map</t>
-  </si>
-  <si>
-    <t>OpenRefine</t>
-  </si>
-  <si>
-    <t>BIMserver</t>
-  </si>
-  <si>
-    <t>OpenTripPlanner</t>
-  </si>
-  <si>
-    <t>openvidu</t>
-  </si>
-  <si>
-    <t>zipkin</t>
-  </si>
-  <si>
-    <t>opengrok</t>
-  </si>
-  <si>
-    <t>visualvm</t>
-  </si>
-  <si>
-    <t>orgzly-android</t>
-  </si>
-  <si>
-    <t>oryx</t>
-  </si>
-  <si>
-    <t>oshi</t>
-  </si>
-  <si>
-    <t>OsmAnd</t>
-  </si>
-  <si>
-    <t>Osmand</t>
-  </si>
-  <si>
-    <t>osmdroid</t>
-  </si>
-  <si>
-    <t>pac4j</t>
-  </si>
-  <si>
-    <t>pentaho-kettle</t>
-  </si>
-  <si>
-    <t>keepass2android</t>
-  </si>
-  <si>
-    <t>secor</t>
-  </si>
-  <si>
-    <t>pmd</t>
-  </si>
-  <si>
-    <t>PocketHub</t>
-  </si>
-  <si>
-    <t>pravega</t>
-  </si>
-  <si>
-    <t>presto</t>
-  </si>
-  <si>
-    <t>processing</t>
-  </si>
-  <si>
-    <t>psi-probe</t>
-  </si>
-  <si>
-    <t>storio</t>
-  </si>
-  <si>
-    <t>serve</t>
-  </si>
-  <si>
-    <t>slf4j</t>
-  </si>
-  <si>
-    <t>RedReader</t>
-  </si>
-  <si>
-    <t>quran_android</t>
-  </si>
-  <si>
-    <t>Rajawali</t>
-  </si>
-  <si>
-    <t>reactor-netty</t>
-  </si>
-  <si>
-    <t>aeron</t>
-  </si>
-  <si>
-    <t>simple-binary-encoding</t>
-  </si>
-  <si>
-    <t>redisson</t>
-  </si>
-  <si>
-    <t>xabber-android</t>
-  </si>
-  <si>
-    <t>rest-assured</t>
-  </si>
-  <si>
-    <t>ripme</t>
-  </si>
-  <si>
-    <t>rstudio</t>
-  </si>
-  <si>
-    <t>runelite</t>
-  </si>
-  <si>
-    <t>ics-openvpn</t>
-  </si>
-  <si>
-    <t>scouter</t>
-  </si>
-  <si>
-    <t>Signal-Android</t>
-  </si>
-  <si>
-    <t>android-maven-plugin</t>
-  </si>
-  <si>
-    <t>jadx</t>
-  </si>
-  <si>
-    <t>gh4a</t>
-  </si>
-  <si>
-    <t>autopsy</t>
-  </si>
-  <si>
-    <t>sonarqube</t>
-  </si>
-  <si>
-    <t>nokogiri</t>
-  </si>
-  <si>
-    <t>speedment</t>
-  </si>
-  <si>
-    <t>BungeeCord</t>
-  </si>
-  <si>
-    <t>SpongeAPI</t>
-  </si>
-  <si>
-    <t>SpongeForge</t>
-  </si>
-  <si>
-    <t>spotbugs</t>
-  </si>
-  <si>
-    <t>helios</t>
-  </si>
-  <si>
-    <t>spring-cloud-netflix</t>
-  </si>
-  <si>
-    <t>spring-cloud-gateway</t>
-  </si>
-  <si>
-    <t>spring-cloud-config</t>
-  </si>
-  <si>
-    <t>spring-cloud-sleuth</t>
-  </si>
-  <si>
-    <t>okhttp</t>
-  </si>
-  <si>
-    <t>retrofit</t>
-  </si>
-  <si>
-    <t>wire</t>
-  </si>
-  <si>
-    <t>keywhiz</t>
-  </si>
-  <si>
-    <t>stagemonitor</t>
-  </si>
-  <si>
-    <t>strimzi-kafka-operator</t>
-  </si>
-  <si>
-    <t>swagger-core</t>
-  </si>
-  <si>
-    <t>syncany</t>
-  </si>
-  <si>
-    <t>syncthing-android</t>
-  </si>
-  <si>
-    <t>synthea</t>
-  </si>
-  <si>
-    <t>AmazeFileManager</t>
-  </si>
-  <si>
-    <t>teammates</t>
-  </si>
-  <si>
-    <t>onedev</t>
-  </si>
-  <si>
-    <t>thingsboard</t>
-  </si>
-  <si>
-    <t>thymeleaf</t>
-  </si>
-  <si>
-    <t>Shuttle</t>
-  </si>
-  <si>
-    <t>wiremock</t>
-  </si>
-  <si>
-    <t>amidst</t>
-  </si>
-  <si>
-    <t>traccar</t>
-  </si>
-  <si>
-    <t>java-tron</t>
-  </si>
-  <si>
-    <t>beakerx</t>
-  </si>
-  <si>
-    <t>afwall</t>
-  </si>
-  <si>
-    <t>undertow</t>
-  </si>
-  <si>
-    <t>LeafPic</t>
-  </si>
-  <si>
-    <t>UniversalMediaServer</t>
-  </si>
-  <si>
-    <t>validator</t>
-  </si>
-  <si>
-    <t>modeldb</t>
-  </si>
-  <si>
-    <t>vespa</t>
-  </si>
-  <si>
-    <t>Saturn</t>
-  </si>
-  <si>
-    <t>flexmark-java</t>
-  </si>
-  <si>
-    <t>epubcheck</t>
-  </si>
-  <si>
-    <t>dynmap</t>
-  </si>
-  <si>
-    <t>StreetComplete</t>
-  </si>
-  <si>
-    <t>apps-android-wikipedia</t>
-  </si>
-  <si>
     <t>Universal-G-Code-Sender</t>
   </si>
   <si>
@@ -1000,25 +1000,25 @@
     <t>automation</t>
   </si>
   <si>
+    <t>infrastructure management</t>
+  </si>
+  <si>
+    <t>media</t>
+  </si>
+  <si>
+    <t>hpc</t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
+    <t>machine learning</t>
+  </si>
+  <si>
+    <t>software development</t>
+  </si>
+  <si>
     <t>monitoring</t>
-  </si>
-  <si>
-    <t>hpc</t>
-  </si>
-  <si>
-    <t>software development</t>
-  </si>
-  <si>
-    <t>infrastructure management</t>
-  </si>
-  <si>
-    <t>media</t>
-  </si>
-  <si>
-    <t>security</t>
-  </si>
-  <si>
-    <t>machine learning</t>
   </si>
   <si>
     <t>collaboration</t>
@@ -1480,11 +1480,8 @@
       <c r="B3" t="s">
         <v>328</v>
       </c>
-      <c r="F3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" t="s">
-        <v>7</v>
+      <c r="D3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1497,11 +1494,8 @@
       <c r="C4" t="s">
         <v>2</v>
       </c>
-      <c r="D4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" t="s">
-        <v>4</v>
+      <c r="I4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1509,7 +1503,13 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>330</v>
+        <v>328</v>
+      </c>
+      <c r="E5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1522,31 +1522,16 @@
       <c r="C6" t="s">
         <v>2</v>
       </c>
-      <c r="E6" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C7" t="s">
         <v>2</v>
-      </c>
-      <c r="E7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" t="s">
-        <v>7</v>
-      </c>
-      <c r="I7" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1556,8 +1541,8 @@
       <c r="B8" t="s">
         <v>331</v>
       </c>
-      <c r="D8" t="s">
-        <v>3</v>
+      <c r="H8" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1567,25 +1552,16 @@
       <c r="B9" t="s">
         <v>332</v>
       </c>
-      <c r="C9" t="s">
-        <v>2</v>
-      </c>
-      <c r="I9" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>331</v>
-      </c>
-      <c r="E10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H10" t="s">
-        <v>7</v>
+        <v>329</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1593,10 +1569,10 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>331</v>
-      </c>
-      <c r="C11" t="s">
-        <v>2</v>
+        <v>329</v>
+      </c>
+      <c r="F11" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1606,9 +1582,6 @@
       <c r="B12" t="s">
         <v>329</v>
       </c>
-      <c r="C12" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
@@ -1626,7 +1599,13 @@
         <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>334</v>
+        <v>328</v>
+      </c>
+      <c r="E14" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1634,10 +1613,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>332</v>
-      </c>
-      <c r="C15" t="s">
-        <v>2</v>
+        <v>328</v>
+      </c>
+      <c r="F15" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1645,87 +1624,108 @@
         <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="F16" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="H16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" t="s">
         <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>330</v>
+      </c>
+      <c r="C17" t="s">
+        <v>2</v>
+      </c>
+      <c r="F17" t="s">
+        <v>5</v>
+      </c>
+      <c r="H17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" t="s">
         <v>25</v>
       </c>
       <c r="B18" t="s">
-        <v>330</v>
-      </c>
-      <c r="H18" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" t="s">
         <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>331</v>
+        <v>328</v>
+      </c>
+      <c r="C19" t="s">
+        <v>2</v>
       </c>
       <c r="E19" t="s">
         <v>4</v>
       </c>
-      <c r="H19" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" t="s">
         <v>27</v>
       </c>
       <c r="B20" t="s">
-        <v>331</v>
-      </c>
-      <c r="F20" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>328</v>
+      </c>
+      <c r="C20" t="s">
+        <v>2</v>
+      </c>
+      <c r="H20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" t="s">
         <v>28</v>
       </c>
       <c r="B21" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C21" t="s">
         <v>2</v>
       </c>
-      <c r="F21" t="s">
-        <v>5</v>
-      </c>
-      <c r="H21" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+      <c r="D21" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" t="s">
         <v>29</v>
       </c>
       <c r="B22" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>328</v>
+      </c>
+      <c r="C22" t="s">
+        <v>2</v>
+      </c>
+      <c r="E22" t="s">
+        <v>4</v>
+      </c>
+      <c r="H22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" t="s">
         <v>30</v>
       </c>
       <c r="B23" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="C23" t="s">
         <v>2</v>
@@ -1734,57 +1734,60 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:9">
       <c r="A24" t="s">
         <v>31</v>
       </c>
       <c r="B24" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="C24" t="s">
         <v>2</v>
       </c>
+      <c r="E24" t="s">
+        <v>4</v>
+      </c>
       <c r="H24" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:9">
       <c r="A25" t="s">
         <v>32</v>
       </c>
       <c r="B25" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C25" t="s">
         <v>2</v>
       </c>
-      <c r="E25" t="s">
-        <v>4</v>
+      <c r="F25" t="s">
+        <v>5</v>
       </c>
       <c r="H25" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:9">
       <c r="A26" t="s">
         <v>33</v>
       </c>
       <c r="B26" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="C26" t="s">
         <v>2</v>
       </c>
-      <c r="E26" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+      <c r="H26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" t="s">
         <v>34</v>
       </c>
       <c r="B27" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C27" t="s">
         <v>2</v>
@@ -1792,33 +1795,24 @@
       <c r="E27" t="s">
         <v>4</v>
       </c>
-      <c r="H27" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" t="s">
         <v>35</v>
       </c>
       <c r="B28" t="s">
-        <v>330</v>
-      </c>
-      <c r="C28" t="s">
-        <v>2</v>
-      </c>
-      <c r="F28" t="s">
-        <v>5</v>
+        <v>328</v>
       </c>
       <c r="H28" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:9">
       <c r="A29" t="s">
         <v>36</v>
       </c>
       <c r="B29" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="C29" t="s">
         <v>2</v>
@@ -1827,43 +1821,55 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:9">
       <c r="A30" t="s">
         <v>37</v>
       </c>
       <c r="B30" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C30" t="s">
         <v>2</v>
       </c>
-      <c r="E30" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" t="s">
         <v>38</v>
       </c>
       <c r="B31" t="s">
-        <v>331</v>
+        <v>330</v>
+      </c>
+      <c r="C31" t="s">
+        <v>2</v>
+      </c>
+      <c r="E31" t="s">
+        <v>4</v>
       </c>
       <c r="H31" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:9">
       <c r="A32" t="s">
         <v>39</v>
       </c>
       <c r="B32" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C32" t="s">
         <v>2</v>
       </c>
+      <c r="E32" t="s">
+        <v>4</v>
+      </c>
+      <c r="F32" t="s">
+        <v>5</v>
+      </c>
       <c r="H32" t="s">
         <v>7</v>
+      </c>
+      <c r="I32" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1871,10 +1877,10 @@
         <v>40</v>
       </c>
       <c r="B33" t="s">
-        <v>328</v>
-      </c>
-      <c r="C33" t="s">
-        <v>2</v>
+        <v>333</v>
+      </c>
+      <c r="H33" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1882,16 +1888,10 @@
         <v>41</v>
       </c>
       <c r="B34" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C34" t="s">
         <v>2</v>
-      </c>
-      <c r="E34" t="s">
-        <v>4</v>
-      </c>
-      <c r="H34" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1899,22 +1899,10 @@
         <v>42</v>
       </c>
       <c r="B35" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C35" t="s">
         <v>2</v>
-      </c>
-      <c r="E35" t="s">
-        <v>4</v>
-      </c>
-      <c r="F35" t="s">
-        <v>5</v>
-      </c>
-      <c r="H35" t="s">
-        <v>7</v>
-      </c>
-      <c r="I35" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1922,10 +1910,19 @@
         <v>43</v>
       </c>
       <c r="B36" t="s">
-        <v>330</v>
+        <v>328</v>
+      </c>
+      <c r="C36" t="s">
+        <v>2</v>
+      </c>
+      <c r="E36" t="s">
+        <v>4</v>
       </c>
       <c r="H36" t="s">
         <v>7</v>
+      </c>
+      <c r="I36" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1933,10 +1930,16 @@
         <v>44</v>
       </c>
       <c r="B37" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="C37" t="s">
         <v>2</v>
+      </c>
+      <c r="E37" t="s">
+        <v>4</v>
+      </c>
+      <c r="F37" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1944,10 +1947,13 @@
         <v>45</v>
       </c>
       <c r="B38" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C38" t="s">
         <v>2</v>
+      </c>
+      <c r="H38" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1955,19 +1961,10 @@
         <v>46</v>
       </c>
       <c r="B39" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C39" t="s">
         <v>2</v>
-      </c>
-      <c r="E39" t="s">
-        <v>4</v>
-      </c>
-      <c r="H39" t="s">
-        <v>7</v>
-      </c>
-      <c r="I39" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1975,16 +1972,7 @@
         <v>47</v>
       </c>
       <c r="B40" t="s">
-        <v>336</v>
-      </c>
-      <c r="C40" t="s">
-        <v>2</v>
-      </c>
-      <c r="E40" t="s">
-        <v>4</v>
-      </c>
-      <c r="F40" t="s">
-        <v>5</v>
+        <v>330</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1992,7 +1980,7 @@
         <v>48</v>
       </c>
       <c r="B41" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C41" t="s">
         <v>2</v>
@@ -2006,10 +1994,22 @@
         <v>49</v>
       </c>
       <c r="B42" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="C42" t="s">
         <v>2</v>
+      </c>
+      <c r="E42" t="s">
+        <v>4</v>
+      </c>
+      <c r="F42" t="s">
+        <v>5</v>
+      </c>
+      <c r="H42" t="s">
+        <v>7</v>
+      </c>
+      <c r="I42" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -2017,7 +2017,13 @@
         <v>50</v>
       </c>
       <c r="B43" t="s">
-        <v>329</v>
+        <v>337</v>
+      </c>
+      <c r="C43" t="s">
+        <v>2</v>
+      </c>
+      <c r="E43" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -2025,13 +2031,22 @@
         <v>51</v>
       </c>
       <c r="B44" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="C44" t="s">
         <v>2</v>
       </c>
+      <c r="E44" t="s">
+        <v>4</v>
+      </c>
+      <c r="F44" t="s">
+        <v>5</v>
+      </c>
       <c r="H44" t="s">
         <v>7</v>
+      </c>
+      <c r="I44" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -2039,22 +2054,7 @@
         <v>52</v>
       </c>
       <c r="B45" t="s">
-        <v>328</v>
-      </c>
-      <c r="C45" t="s">
-        <v>2</v>
-      </c>
-      <c r="E45" t="s">
-        <v>4</v>
-      </c>
-      <c r="F45" t="s">
-        <v>5</v>
-      </c>
-      <c r="H45" t="s">
-        <v>7</v>
-      </c>
-      <c r="I45" t="s">
-        <v>8</v>
+        <v>338</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -2062,13 +2062,25 @@
         <v>53</v>
       </c>
       <c r="B46" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="C46" t="s">
         <v>2</v>
+      </c>
+      <c r="D46" t="s">
+        <v>3</v>
       </c>
       <c r="E46" t="s">
         <v>4</v>
+      </c>
+      <c r="F46" t="s">
+        <v>5</v>
+      </c>
+      <c r="H46" t="s">
+        <v>7</v>
+      </c>
+      <c r="I46" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -2076,22 +2088,10 @@
         <v>54</v>
       </c>
       <c r="B47" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="C47" t="s">
         <v>2</v>
-      </c>
-      <c r="E47" t="s">
-        <v>4</v>
-      </c>
-      <c r="F47" t="s">
-        <v>5</v>
-      </c>
-      <c r="H47" t="s">
-        <v>7</v>
-      </c>
-      <c r="I47" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -2099,86 +2099,83 @@
         <v>55</v>
       </c>
       <c r="B48" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>329</v>
+      </c>
+      <c r="C48" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" t="s">
         <v>56</v>
       </c>
       <c r="B49" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="C49" t="s">
         <v>2</v>
       </c>
-      <c r="D49" t="s">
-        <v>3</v>
-      </c>
-      <c r="E49" t="s">
-        <v>4</v>
-      </c>
       <c r="F49" t="s">
         <v>5</v>
       </c>
       <c r="H49" t="s">
         <v>7</v>
       </c>
-      <c r="I49" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" t="s">
         <v>57</v>
       </c>
       <c r="B50" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="C50" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:8">
       <c r="A51" t="s">
         <v>58</v>
       </c>
       <c r="B51" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C51" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="52" spans="1:9">
+      <c r="H51" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" t="s">
         <v>59</v>
       </c>
       <c r="B52" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C52" t="s">
         <v>2</v>
       </c>
-      <c r="F52" t="s">
-        <v>5</v>
-      </c>
-      <c r="H52" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+      <c r="E52" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" t="s">
         <v>60</v>
       </c>
       <c r="B53" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="C53" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="54" spans="1:9">
+      <c r="H53" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" t="s">
         <v>61</v>
       </c>
@@ -2188,16 +2185,13 @@
       <c r="C54" t="s">
         <v>2</v>
       </c>
-      <c r="H54" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" t="s">
         <v>62</v>
       </c>
       <c r="B55" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="C55" t="s">
         <v>2</v>
@@ -2206,100 +2200,88 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:8">
       <c r="A56" t="s">
         <v>63</v>
       </c>
       <c r="B56" t="s">
-        <v>340</v>
-      </c>
-      <c r="C56" t="s">
-        <v>2</v>
-      </c>
-      <c r="H56" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" t="s">
         <v>64</v>
       </c>
       <c r="B57" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="C57" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="58" spans="1:9">
+      <c r="F57" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" t="s">
         <v>65</v>
       </c>
       <c r="B58" t="s">
-        <v>336</v>
-      </c>
-      <c r="C58" t="s">
-        <v>2</v>
-      </c>
-      <c r="E58" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" t="s">
         <v>66</v>
       </c>
       <c r="B59" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" t="s">
         <v>67</v>
       </c>
       <c r="B60" t="s">
-        <v>341</v>
-      </c>
-      <c r="C60" t="s">
-        <v>2</v>
-      </c>
-      <c r="F60" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>334</v>
+      </c>
+      <c r="H60" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" t="s">
         <v>68</v>
       </c>
       <c r="B61" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" t="s">
         <v>69</v>
       </c>
       <c r="B62" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" t="s">
         <v>70</v>
       </c>
       <c r="B63" t="s">
-        <v>328</v>
-      </c>
-      <c r="H63" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" t="s">
         <v>71</v>
       </c>
       <c r="B64" t="s">
-        <v>337</v>
+        <v>342</v>
+      </c>
+      <c r="F64" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2307,7 +2289,10 @@
         <v>72</v>
       </c>
       <c r="B65" t="s">
-        <v>342</v>
+        <v>327</v>
+      </c>
+      <c r="C65" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2315,7 +2300,7 @@
         <v>73</v>
       </c>
       <c r="B66" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2323,10 +2308,7 @@
         <v>74</v>
       </c>
       <c r="B67" t="s">
-        <v>342</v>
-      </c>
-      <c r="F67" t="s">
-        <v>5</v>
+        <v>334</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2334,10 +2316,13 @@
         <v>75</v>
       </c>
       <c r="B68" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="C68" t="s">
         <v>2</v>
+      </c>
+      <c r="H68" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2345,7 +2330,13 @@
         <v>76</v>
       </c>
       <c r="B69" t="s">
-        <v>332</v>
+        <v>333</v>
+      </c>
+      <c r="E69" t="s">
+        <v>4</v>
+      </c>
+      <c r="F69" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2353,7 +2344,7 @@
         <v>77</v>
       </c>
       <c r="B70" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2361,10 +2352,7 @@
         <v>78</v>
       </c>
       <c r="B71" t="s">
-        <v>328</v>
-      </c>
-      <c r="C71" t="s">
-        <v>2</v>
+        <v>332</v>
       </c>
       <c r="H71" t="s">
         <v>7</v>
@@ -2375,13 +2363,10 @@
         <v>79</v>
       </c>
       <c r="B72" t="s">
-        <v>330</v>
-      </c>
-      <c r="E72" t="s">
-        <v>4</v>
-      </c>
-      <c r="F72" t="s">
-        <v>5</v>
+        <v>332</v>
+      </c>
+      <c r="C72" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2389,7 +2374,13 @@
         <v>80</v>
       </c>
       <c r="B73" t="s">
-        <v>330</v>
+        <v>333</v>
+      </c>
+      <c r="F73" t="s">
+        <v>5</v>
+      </c>
+      <c r="H73" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2397,7 +2388,13 @@
         <v>81</v>
       </c>
       <c r="B74" t="s">
-        <v>334</v>
+        <v>331</v>
+      </c>
+      <c r="C74" t="s">
+        <v>2</v>
+      </c>
+      <c r="E74" t="s">
+        <v>4</v>
       </c>
       <c r="H74" t="s">
         <v>7</v>
@@ -2408,7 +2405,7 @@
         <v>82</v>
       </c>
       <c r="B75" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C75" t="s">
         <v>2</v>
@@ -2419,13 +2416,7 @@
         <v>83</v>
       </c>
       <c r="B76" t="s">
-        <v>330</v>
-      </c>
-      <c r="F76" t="s">
-        <v>5</v>
-      </c>
-      <c r="H76" t="s">
-        <v>7</v>
+        <v>329</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2438,22 +2429,16 @@
       <c r="C77" t="s">
         <v>2</v>
       </c>
-      <c r="E77" t="s">
-        <v>4</v>
-      </c>
-      <c r="H77" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="78" spans="1:8">
       <c r="A78" t="s">
         <v>85</v>
       </c>
       <c r="B78" t="s">
-        <v>330</v>
-      </c>
-      <c r="C78" t="s">
-        <v>2</v>
+        <v>328</v>
+      </c>
+      <c r="H78" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2461,7 +2446,10 @@
         <v>86</v>
       </c>
       <c r="B79" t="s">
-        <v>332</v>
+        <v>338</v>
+      </c>
+      <c r="H79" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2469,10 +2457,7 @@
         <v>87</v>
       </c>
       <c r="B80" t="s">
-        <v>330</v>
-      </c>
-      <c r="C80" t="s">
-        <v>2</v>
+        <v>331</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2482,19 +2467,13 @@
       <c r="B81" t="s">
         <v>331</v>
       </c>
-      <c r="H81" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="82" spans="1:8">
       <c r="A82" t="s">
         <v>89</v>
       </c>
       <c r="B82" t="s">
-        <v>338</v>
-      </c>
-      <c r="H82" t="s">
-        <v>7</v>
+        <v>331</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2502,7 +2481,19 @@
         <v>90</v>
       </c>
       <c r="B83" t="s">
-        <v>333</v>
+        <v>328</v>
+      </c>
+      <c r="C83" t="s">
+        <v>2</v>
+      </c>
+      <c r="E83" t="s">
+        <v>4</v>
+      </c>
+      <c r="F83" t="s">
+        <v>5</v>
+      </c>
+      <c r="H83" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2512,6 +2503,18 @@
       <c r="B84" t="s">
         <v>333</v>
       </c>
+      <c r="C84" t="s">
+        <v>2</v>
+      </c>
+      <c r="E84" t="s">
+        <v>4</v>
+      </c>
+      <c r="F84" t="s">
+        <v>5</v>
+      </c>
+      <c r="H84" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="85" spans="1:8">
       <c r="A85" t="s">
@@ -2520,19 +2523,19 @@
       <c r="B85" t="s">
         <v>333</v>
       </c>
+      <c r="C85" t="s">
+        <v>2</v>
+      </c>
+      <c r="F85" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="86" spans="1:8">
       <c r="A86" t="s">
         <v>93</v>
       </c>
       <c r="B86" t="s">
-        <v>331</v>
-      </c>
-      <c r="C86" t="s">
-        <v>2</v>
-      </c>
-      <c r="E86" t="s">
-        <v>4</v>
+        <v>334</v>
       </c>
       <c r="F86" t="s">
         <v>5</v>
@@ -2546,19 +2549,7 @@
         <v>94</v>
       </c>
       <c r="B87" t="s">
-        <v>330</v>
-      </c>
-      <c r="C87" t="s">
-        <v>2</v>
-      </c>
-      <c r="E87" t="s">
-        <v>4</v>
-      </c>
-      <c r="F87" t="s">
-        <v>5</v>
-      </c>
-      <c r="H87" t="s">
-        <v>7</v>
+        <v>332</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2566,13 +2557,7 @@
         <v>95</v>
       </c>
       <c r="B88" t="s">
-        <v>330</v>
-      </c>
-      <c r="C88" t="s">
-        <v>2</v>
-      </c>
-      <c r="F88" t="s">
-        <v>5</v>
+        <v>333</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2580,13 +2565,7 @@
         <v>96</v>
       </c>
       <c r="B89" t="s">
-        <v>328</v>
-      </c>
-      <c r="F89" t="s">
-        <v>5</v>
-      </c>
-      <c r="H89" t="s">
-        <v>7</v>
+        <v>343</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2594,7 +2573,16 @@
         <v>97</v>
       </c>
       <c r="B90" t="s">
-        <v>334</v>
+        <v>338</v>
+      </c>
+      <c r="C90" t="s">
+        <v>2</v>
+      </c>
+      <c r="E90" t="s">
+        <v>4</v>
+      </c>
+      <c r="H90" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2602,7 +2590,13 @@
         <v>98</v>
       </c>
       <c r="B91" t="s">
-        <v>330</v>
+        <v>333</v>
+      </c>
+      <c r="C91" t="s">
+        <v>2</v>
+      </c>
+      <c r="F91" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2610,7 +2604,7 @@
         <v>99</v>
       </c>
       <c r="B92" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2623,9 +2617,6 @@
       <c r="C93" t="s">
         <v>2</v>
       </c>
-      <c r="E93" t="s">
-        <v>4</v>
-      </c>
       <c r="H93" t="s">
         <v>7</v>
       </c>
@@ -2635,13 +2626,13 @@
         <v>101</v>
       </c>
       <c r="B94" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="C94" t="s">
         <v>2</v>
       </c>
-      <c r="F94" t="s">
-        <v>5</v>
+      <c r="H94" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2649,13 +2640,7 @@
         <v>102</v>
       </c>
       <c r="B95" t="s">
-        <v>338</v>
-      </c>
-      <c r="C95" t="s">
-        <v>2</v>
-      </c>
-      <c r="H95" t="s">
-        <v>7</v>
+        <v>333</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2663,13 +2648,13 @@
         <v>103</v>
       </c>
       <c r="B96" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="C96" t="s">
         <v>2</v>
       </c>
-      <c r="H96" t="s">
-        <v>7</v>
+      <c r="F96" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2685,13 +2670,7 @@
         <v>105</v>
       </c>
       <c r="B98" t="s">
-        <v>330</v>
-      </c>
-      <c r="C98" t="s">
-        <v>2</v>
-      </c>
-      <c r="F98" t="s">
-        <v>5</v>
+        <v>327</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2699,7 +2678,10 @@
         <v>106</v>
       </c>
       <c r="B99" t="s">
-        <v>329</v>
+        <v>342</v>
+      </c>
+      <c r="C99" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2707,7 +2689,10 @@
         <v>107</v>
       </c>
       <c r="B100" t="s">
-        <v>327</v>
+        <v>333</v>
+      </c>
+      <c r="C100" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -2715,10 +2700,7 @@
         <v>108</v>
       </c>
       <c r="B101" t="s">
-        <v>342</v>
-      </c>
-      <c r="C101" t="s">
-        <v>2</v>
+        <v>329</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -2726,10 +2708,7 @@
         <v>109</v>
       </c>
       <c r="B102" t="s">
-        <v>330</v>
-      </c>
-      <c r="C102" t="s">
-        <v>2</v>
+        <v>343</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -2737,7 +2716,10 @@
         <v>110</v>
       </c>
       <c r="B103" t="s">
-        <v>332</v>
+        <v>333</v>
+      </c>
+      <c r="C103" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -2745,7 +2727,7 @@
         <v>111</v>
       </c>
       <c r="B104" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -2753,10 +2735,7 @@
         <v>112</v>
       </c>
       <c r="B105" t="s">
-        <v>330</v>
-      </c>
-      <c r="C105" t="s">
-        <v>2</v>
+        <v>333</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -2764,7 +2743,7 @@
         <v>113</v>
       </c>
       <c r="B106" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -2772,7 +2751,16 @@
         <v>114</v>
       </c>
       <c r="B107" t="s">
-        <v>330</v>
+        <v>331</v>
+      </c>
+      <c r="C107" t="s">
+        <v>2</v>
+      </c>
+      <c r="F107" t="s">
+        <v>5</v>
+      </c>
+      <c r="H107" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -2780,7 +2768,7 @@
         <v>115</v>
       </c>
       <c r="B108" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -2793,6 +2781,9 @@
       <c r="C109" t="s">
         <v>2</v>
       </c>
+      <c r="E109" t="s">
+        <v>4</v>
+      </c>
       <c r="F109" t="s">
         <v>5</v>
       </c>
@@ -2813,19 +2804,7 @@
         <v>118</v>
       </c>
       <c r="B111" t="s">
-        <v>330</v>
-      </c>
-      <c r="C111" t="s">
-        <v>2</v>
-      </c>
-      <c r="E111" t="s">
-        <v>4</v>
-      </c>
-      <c r="F111" t="s">
-        <v>5</v>
-      </c>
-      <c r="H111" t="s">
-        <v>7</v>
+        <v>328</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -2833,7 +2812,7 @@
         <v>119</v>
       </c>
       <c r="B112" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -2841,7 +2820,10 @@
         <v>120</v>
       </c>
       <c r="B113" t="s">
-        <v>331</v>
+        <v>332</v>
+      </c>
+      <c r="C113" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -2849,7 +2831,7 @@
         <v>121</v>
       </c>
       <c r="B114" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -2857,10 +2839,7 @@
         <v>122</v>
       </c>
       <c r="B115" t="s">
-        <v>334</v>
-      </c>
-      <c r="C115" t="s">
-        <v>2</v>
+        <v>329</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -2868,7 +2847,7 @@
         <v>123</v>
       </c>
       <c r="B116" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -2876,7 +2855,16 @@
         <v>124</v>
       </c>
       <c r="B117" t="s">
-        <v>332</v>
+        <v>329</v>
+      </c>
+      <c r="C117" t="s">
+        <v>2</v>
+      </c>
+      <c r="F117" t="s">
+        <v>5</v>
+      </c>
+      <c r="H117" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -2884,7 +2872,19 @@
         <v>125</v>
       </c>
       <c r="B118" t="s">
-        <v>331</v>
+        <v>336</v>
+      </c>
+      <c r="C118" t="s">
+        <v>2</v>
+      </c>
+      <c r="E118" t="s">
+        <v>4</v>
+      </c>
+      <c r="F118" t="s">
+        <v>5</v>
+      </c>
+      <c r="H118" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -2892,16 +2892,10 @@
         <v>126</v>
       </c>
       <c r="B119" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C119" t="s">
         <v>2</v>
-      </c>
-      <c r="F119" t="s">
-        <v>5</v>
-      </c>
-      <c r="H119" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -2909,19 +2903,7 @@
         <v>127</v>
       </c>
       <c r="B120" t="s">
-        <v>336</v>
-      </c>
-      <c r="C120" t="s">
-        <v>2</v>
-      </c>
-      <c r="E120" t="s">
-        <v>4</v>
-      </c>
-      <c r="F120" t="s">
-        <v>5</v>
-      </c>
-      <c r="H120" t="s">
-        <v>7</v>
+        <v>342</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -2929,10 +2911,10 @@
         <v>128</v>
       </c>
       <c r="B121" t="s">
-        <v>332</v>
-      </c>
-      <c r="C121" t="s">
-        <v>2</v>
+        <v>333</v>
+      </c>
+      <c r="E121" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -2940,7 +2922,13 @@
         <v>129</v>
       </c>
       <c r="B122" t="s">
-        <v>342</v>
+        <v>335</v>
+      </c>
+      <c r="C122" t="s">
+        <v>2</v>
+      </c>
+      <c r="H122" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -2948,10 +2936,10 @@
         <v>130</v>
       </c>
       <c r="B123" t="s">
-        <v>330</v>
-      </c>
-      <c r="E123" t="s">
-        <v>4</v>
+        <v>342</v>
+      </c>
+      <c r="F123" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -2959,13 +2947,10 @@
         <v>131</v>
       </c>
       <c r="B124" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="C124" t="s">
         <v>2</v>
-      </c>
-      <c r="H124" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -2973,10 +2958,16 @@
         <v>132</v>
       </c>
       <c r="B125" t="s">
-        <v>342</v>
-      </c>
-      <c r="F125" t="s">
-        <v>5</v>
+        <v>327</v>
+      </c>
+      <c r="C125" t="s">
+        <v>2</v>
+      </c>
+      <c r="E125" t="s">
+        <v>4</v>
+      </c>
+      <c r="H125" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -2984,7 +2975,7 @@
         <v>133</v>
       </c>
       <c r="B126" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C126" t="s">
         <v>2</v>
@@ -2995,13 +2986,10 @@
         <v>134</v>
       </c>
       <c r="B127" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="C127" t="s">
         <v>2</v>
-      </c>
-      <c r="E127" t="s">
-        <v>4</v>
       </c>
       <c r="H127" t="s">
         <v>7</v>
@@ -3012,10 +3000,10 @@
         <v>135</v>
       </c>
       <c r="B128" t="s">
-        <v>332</v>
-      </c>
-      <c r="C128" t="s">
-        <v>2</v>
+        <v>333</v>
+      </c>
+      <c r="F128" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3023,10 +3011,13 @@
         <v>136</v>
       </c>
       <c r="B129" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="C129" t="s">
         <v>2</v>
+      </c>
+      <c r="F129" t="s">
+        <v>5</v>
       </c>
       <c r="H129" t="s">
         <v>7</v>
@@ -3037,10 +3028,7 @@
         <v>137</v>
       </c>
       <c r="B130" t="s">
-        <v>330</v>
-      </c>
-      <c r="F130" t="s">
-        <v>5</v>
+        <v>333</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3048,13 +3036,7 @@
         <v>138</v>
       </c>
       <c r="B131" t="s">
-        <v>338</v>
-      </c>
-      <c r="C131" t="s">
-        <v>2</v>
-      </c>
-      <c r="F131" t="s">
-        <v>5</v>
+        <v>343</v>
       </c>
       <c r="H131" t="s">
         <v>7</v>
@@ -3065,7 +3047,13 @@
         <v>139</v>
       </c>
       <c r="B132" t="s">
-        <v>330</v>
+        <v>329</v>
+      </c>
+      <c r="C132" t="s">
+        <v>2</v>
+      </c>
+      <c r="H132" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3073,10 +3061,7 @@
         <v>140</v>
       </c>
       <c r="B133" t="s">
-        <v>343</v>
-      </c>
-      <c r="H133" t="s">
-        <v>7</v>
+        <v>329</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3084,13 +3069,7 @@
         <v>141</v>
       </c>
       <c r="B134" t="s">
-        <v>332</v>
-      </c>
-      <c r="C134" t="s">
-        <v>2</v>
-      </c>
-      <c r="H134" t="s">
-        <v>7</v>
+        <v>338</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3098,7 +3077,19 @@
         <v>142</v>
       </c>
       <c r="B135" t="s">
-        <v>332</v>
+        <v>328</v>
+      </c>
+      <c r="C135" t="s">
+        <v>2</v>
+      </c>
+      <c r="D135" t="s">
+        <v>3</v>
+      </c>
+      <c r="F135" t="s">
+        <v>5</v>
+      </c>
+      <c r="H135" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3106,7 +3097,7 @@
         <v>143</v>
       </c>
       <c r="B136" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3114,16 +3105,10 @@
         <v>144</v>
       </c>
       <c r="B137" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C137" t="s">
         <v>2</v>
-      </c>
-      <c r="D137" t="s">
-        <v>3</v>
-      </c>
-      <c r="F137" t="s">
-        <v>5</v>
       </c>
       <c r="H137" t="s">
         <v>7</v>
@@ -3136,19 +3121,16 @@
       <c r="B138" t="s">
         <v>332</v>
       </c>
+      <c r="H138" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="139" spans="1:8">
       <c r="A139" t="s">
         <v>146</v>
       </c>
       <c r="B139" t="s">
-        <v>334</v>
-      </c>
-      <c r="C139" t="s">
-        <v>2</v>
-      </c>
-      <c r="H139" t="s">
-        <v>7</v>
+        <v>328</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -3156,10 +3138,10 @@
         <v>147</v>
       </c>
       <c r="B140" t="s">
-        <v>334</v>
-      </c>
-      <c r="H140" t="s">
-        <v>7</v>
+        <v>333</v>
+      </c>
+      <c r="C140" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -3167,7 +3149,13 @@
         <v>148</v>
       </c>
       <c r="B141" t="s">
-        <v>331</v>
+        <v>333</v>
+      </c>
+      <c r="C141" t="s">
+        <v>2</v>
+      </c>
+      <c r="F141" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -3175,10 +3163,7 @@
         <v>149</v>
       </c>
       <c r="B142" t="s">
-        <v>330</v>
-      </c>
-      <c r="C142" t="s">
-        <v>2</v>
+        <v>329</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -3186,13 +3171,7 @@
         <v>150</v>
       </c>
       <c r="B143" t="s">
-        <v>330</v>
-      </c>
-      <c r="C143" t="s">
-        <v>2</v>
-      </c>
-      <c r="F143" t="s">
-        <v>5</v>
+        <v>342</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -3200,7 +3179,10 @@
         <v>151</v>
       </c>
       <c r="B144" t="s">
-        <v>332</v>
+        <v>338</v>
+      </c>
+      <c r="C144" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:9">
@@ -3208,7 +3190,7 @@
         <v>152</v>
       </c>
       <c r="B145" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
     </row>
     <row r="146" spans="1:9">
@@ -3216,7 +3198,7 @@
         <v>153</v>
       </c>
       <c r="B146" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C146" t="s">
         <v>2</v>
@@ -3227,7 +3209,7 @@
         <v>154</v>
       </c>
       <c r="B147" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
     </row>
     <row r="148" spans="1:9">
@@ -3235,10 +3217,13 @@
         <v>155</v>
       </c>
       <c r="B148" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="C148" t="s">
         <v>2</v>
+      </c>
+      <c r="E148" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="149" spans="1:9">
@@ -3246,7 +3231,10 @@
         <v>156</v>
       </c>
       <c r="B149" t="s">
-        <v>336</v>
+        <v>338</v>
+      </c>
+      <c r="C149" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:9">
@@ -3254,13 +3242,10 @@
         <v>157</v>
       </c>
       <c r="B150" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C150" t="s">
         <v>2</v>
-      </c>
-      <c r="E150" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="151" spans="1:9">
@@ -3268,10 +3253,10 @@
         <v>158</v>
       </c>
       <c r="B151" t="s">
-        <v>338</v>
-      </c>
-      <c r="C151" t="s">
-        <v>2</v>
+        <v>344</v>
+      </c>
+      <c r="H151" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="152" spans="1:9">
@@ -3279,10 +3264,7 @@
         <v>159</v>
       </c>
       <c r="B152" t="s">
-        <v>332</v>
-      </c>
-      <c r="C152" t="s">
-        <v>2</v>
+        <v>344</v>
       </c>
     </row>
     <row r="153" spans="1:9">
@@ -3290,10 +3272,7 @@
         <v>160</v>
       </c>
       <c r="B153" t="s">
-        <v>344</v>
-      </c>
-      <c r="H153" t="s">
-        <v>7</v>
+        <v>333</v>
       </c>
     </row>
     <row r="154" spans="1:9">
@@ -3301,7 +3280,7 @@
         <v>161</v>
       </c>
       <c r="B154" t="s">
-        <v>344</v>
+        <v>328</v>
       </c>
     </row>
     <row r="155" spans="1:9">
@@ -3309,7 +3288,22 @@
         <v>162</v>
       </c>
       <c r="B155" t="s">
-        <v>330</v>
+        <v>334</v>
+      </c>
+      <c r="C155" t="s">
+        <v>2</v>
+      </c>
+      <c r="E155" t="s">
+        <v>4</v>
+      </c>
+      <c r="F155" t="s">
+        <v>5</v>
+      </c>
+      <c r="H155" t="s">
+        <v>7</v>
+      </c>
+      <c r="I155" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="156" spans="1:9">
@@ -3317,7 +3311,7 @@
         <v>163</v>
       </c>
       <c r="B156" t="s">
-        <v>331</v>
+        <v>344</v>
       </c>
     </row>
     <row r="157" spans="1:9">
@@ -3325,22 +3319,10 @@
         <v>164</v>
       </c>
       <c r="B157" t="s">
-        <v>328</v>
+        <v>340</v>
       </c>
       <c r="C157" t="s">
         <v>2</v>
-      </c>
-      <c r="E157" t="s">
-        <v>4</v>
-      </c>
-      <c r="F157" t="s">
-        <v>5</v>
-      </c>
-      <c r="H157" t="s">
-        <v>7</v>
-      </c>
-      <c r="I157" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="158" spans="1:9">
@@ -3348,7 +3330,10 @@
         <v>165</v>
       </c>
       <c r="B158" t="s">
-        <v>344</v>
+        <v>333</v>
+      </c>
+      <c r="C158" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:9">
@@ -3356,10 +3341,7 @@
         <v>166</v>
       </c>
       <c r="B159" t="s">
-        <v>340</v>
-      </c>
-      <c r="C159" t="s">
-        <v>2</v>
+        <v>343</v>
       </c>
     </row>
     <row r="160" spans="1:9">
@@ -3367,10 +3349,7 @@
         <v>167</v>
       </c>
       <c r="B160" t="s">
-        <v>330</v>
-      </c>
-      <c r="C160" t="s">
-        <v>2</v>
+        <v>333</v>
       </c>
     </row>
     <row r="161" spans="1:9">
@@ -3378,7 +3357,13 @@
         <v>168</v>
       </c>
       <c r="B161" t="s">
-        <v>343</v>
+        <v>337</v>
+      </c>
+      <c r="C161" t="s">
+        <v>2</v>
+      </c>
+      <c r="H161" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="162" spans="1:9">
@@ -3386,7 +3371,7 @@
         <v>169</v>
       </c>
       <c r="B162" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
     </row>
     <row r="163" spans="1:9">
@@ -3394,13 +3379,22 @@
         <v>170</v>
       </c>
       <c r="B163" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="C163" t="s">
         <v>2</v>
       </c>
+      <c r="E163" t="s">
+        <v>4</v>
+      </c>
+      <c r="F163" t="s">
+        <v>5</v>
+      </c>
       <c r="H163" t="s">
         <v>7</v>
+      </c>
+      <c r="I163" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="164" spans="1:9">
@@ -3408,7 +3402,7 @@
         <v>171</v>
       </c>
       <c r="B164" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
     </row>
     <row r="165" spans="1:9">
@@ -3416,22 +3410,16 @@
         <v>172</v>
       </c>
       <c r="B165" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="C165" t="s">
         <v>2</v>
       </c>
-      <c r="E165" t="s">
-        <v>4</v>
-      </c>
       <c r="F165" t="s">
         <v>5</v>
       </c>
       <c r="H165" t="s">
         <v>7</v>
-      </c>
-      <c r="I165" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="166" spans="1:9">
@@ -3439,7 +3427,13 @@
         <v>173</v>
       </c>
       <c r="B166" t="s">
-        <v>330</v>
+        <v>329</v>
+      </c>
+      <c r="C166" t="s">
+        <v>2</v>
+      </c>
+      <c r="H166" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="167" spans="1:9">
@@ -3447,16 +3441,7 @@
         <v>174</v>
       </c>
       <c r="B167" t="s">
-        <v>330</v>
-      </c>
-      <c r="C167" t="s">
-        <v>2</v>
-      </c>
-      <c r="F167" t="s">
-        <v>5</v>
-      </c>
-      <c r="H167" t="s">
-        <v>7</v>
+        <v>336</v>
       </c>
     </row>
     <row r="168" spans="1:9">
@@ -3464,10 +3449,13 @@
         <v>175</v>
       </c>
       <c r="B168" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="C168" t="s">
         <v>2</v>
+      </c>
+      <c r="F168" t="s">
+        <v>5</v>
       </c>
       <c r="H168" t="s">
         <v>7</v>
@@ -3478,7 +3466,7 @@
         <v>176</v>
       </c>
       <c r="B169" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
     </row>
     <row r="170" spans="1:9">
@@ -3486,16 +3474,10 @@
         <v>177</v>
       </c>
       <c r="B170" t="s">
-        <v>336</v>
-      </c>
-      <c r="C170" t="s">
-        <v>2</v>
+        <v>342</v>
       </c>
       <c r="F170" t="s">
         <v>5</v>
-      </c>
-      <c r="H170" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="171" spans="1:9">
@@ -3503,7 +3485,7 @@
         <v>178</v>
       </c>
       <c r="B171" t="s">
-        <v>344</v>
+        <v>327</v>
       </c>
     </row>
     <row r="172" spans="1:9">
@@ -3511,10 +3493,10 @@
         <v>179</v>
       </c>
       <c r="B172" t="s">
-        <v>342</v>
-      </c>
-      <c r="F172" t="s">
-        <v>5</v>
+        <v>333</v>
+      </c>
+      <c r="H172" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="173" spans="1:9">
@@ -3522,7 +3504,7 @@
         <v>180</v>
       </c>
       <c r="B173" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
     </row>
     <row r="174" spans="1:9">
@@ -3530,10 +3512,7 @@
         <v>181</v>
       </c>
       <c r="B174" t="s">
-        <v>330</v>
-      </c>
-      <c r="H174" t="s">
-        <v>7</v>
+        <v>332</v>
       </c>
     </row>
     <row r="175" spans="1:9">
@@ -3541,7 +3520,10 @@
         <v>182</v>
       </c>
       <c r="B175" t="s">
-        <v>330</v>
+        <v>333</v>
+      </c>
+      <c r="F175" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="176" spans="1:9">
@@ -3549,7 +3531,7 @@
         <v>183</v>
       </c>
       <c r="B176" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="177" spans="1:9">
@@ -3557,10 +3539,7 @@
         <v>184</v>
       </c>
       <c r="B177" t="s">
-        <v>330</v>
-      </c>
-      <c r="F177" t="s">
-        <v>5</v>
+        <v>328</v>
       </c>
     </row>
     <row r="178" spans="1:9">
@@ -3568,7 +3547,7 @@
         <v>185</v>
       </c>
       <c r="B178" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
     </row>
     <row r="179" spans="1:9">
@@ -3576,7 +3555,7 @@
         <v>186</v>
       </c>
       <c r="B179" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
     </row>
     <row r="180" spans="1:9">
@@ -3586,13 +3565,34 @@
       <c r="B180" t="s">
         <v>332</v>
       </c>
+      <c r="C180" t="s">
+        <v>2</v>
+      </c>
+      <c r="H180" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="181" spans="1:9">
       <c r="A181" t="s">
         <v>188</v>
       </c>
       <c r="B181" t="s">
-        <v>337</v>
+        <v>331</v>
+      </c>
+      <c r="C181" t="s">
+        <v>2</v>
+      </c>
+      <c r="E181" t="s">
+        <v>4</v>
+      </c>
+      <c r="F181" t="s">
+        <v>5</v>
+      </c>
+      <c r="H181" t="s">
+        <v>7</v>
+      </c>
+      <c r="I181" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="182" spans="1:9">
@@ -3600,13 +3600,7 @@
         <v>189</v>
       </c>
       <c r="B182" t="s">
-        <v>334</v>
-      </c>
-      <c r="C182" t="s">
-        <v>2</v>
-      </c>
-      <c r="H182" t="s">
-        <v>7</v>
+        <v>345</v>
       </c>
     </row>
     <row r="183" spans="1:9">
@@ -3614,22 +3608,16 @@
         <v>190</v>
       </c>
       <c r="B183" t="s">
-        <v>333</v>
+        <v>346</v>
       </c>
       <c r="C183" t="s">
         <v>2</v>
       </c>
-      <c r="E183" t="s">
-        <v>4</v>
-      </c>
       <c r="F183" t="s">
         <v>5</v>
       </c>
       <c r="H183" t="s">
         <v>7</v>
-      </c>
-      <c r="I183" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="184" spans="1:9">
@@ -3637,7 +3625,19 @@
         <v>191</v>
       </c>
       <c r="B184" t="s">
-        <v>345</v>
+        <v>346</v>
+      </c>
+      <c r="C184" t="s">
+        <v>2</v>
+      </c>
+      <c r="F184" t="s">
+        <v>5</v>
+      </c>
+      <c r="H184" t="s">
+        <v>7</v>
+      </c>
+      <c r="I184" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="185" spans="1:9">
@@ -3645,7 +3645,7 @@
         <v>192</v>
       </c>
       <c r="B185" t="s">
-        <v>346</v>
+        <v>327</v>
       </c>
       <c r="C185" t="s">
         <v>2</v>
@@ -3662,19 +3662,13 @@
         <v>193</v>
       </c>
       <c r="B186" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C186" t="s">
         <v>2</v>
       </c>
       <c r="F186" t="s">
         <v>5</v>
-      </c>
-      <c r="H186" t="s">
-        <v>7</v>
-      </c>
-      <c r="I186" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="187" spans="1:9">
@@ -3682,16 +3676,10 @@
         <v>194</v>
       </c>
       <c r="B187" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="C187" t="s">
         <v>2</v>
-      </c>
-      <c r="F187" t="s">
-        <v>5</v>
-      </c>
-      <c r="H187" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="188" spans="1:9">
@@ -3699,13 +3687,10 @@
         <v>195</v>
       </c>
       <c r="B188" t="s">
-        <v>347</v>
+        <v>329</v>
       </c>
       <c r="C188" t="s">
         <v>2</v>
-      </c>
-      <c r="F188" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="189" spans="1:9">
@@ -3713,10 +3698,7 @@
         <v>196</v>
       </c>
       <c r="B189" t="s">
-        <v>330</v>
-      </c>
-      <c r="C189" t="s">
-        <v>2</v>
+        <v>329</v>
       </c>
     </row>
     <row r="190" spans="1:9">
@@ -3724,10 +3706,7 @@
         <v>197</v>
       </c>
       <c r="B190" t="s">
-        <v>332</v>
-      </c>
-      <c r="C190" t="s">
-        <v>2</v>
+        <v>329</v>
       </c>
     </row>
     <row r="191" spans="1:9">
@@ -3735,7 +3714,22 @@
         <v>198</v>
       </c>
       <c r="B191" t="s">
-        <v>332</v>
+        <v>328</v>
+      </c>
+      <c r="C191" t="s">
+        <v>2</v>
+      </c>
+      <c r="E191" t="s">
+        <v>4</v>
+      </c>
+      <c r="F191" t="s">
+        <v>5</v>
+      </c>
+      <c r="H191" t="s">
+        <v>7</v>
+      </c>
+      <c r="I191" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="192" spans="1:9">
@@ -3743,7 +3737,7 @@
         <v>199</v>
       </c>
       <c r="B192" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="193" spans="1:9">
@@ -3751,22 +3745,13 @@
         <v>200</v>
       </c>
       <c r="B193" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C193" t="s">
         <v>2</v>
       </c>
-      <c r="E193" t="s">
-        <v>4</v>
-      </c>
-      <c r="F193" t="s">
-        <v>5</v>
-      </c>
       <c r="H193" t="s">
         <v>7</v>
-      </c>
-      <c r="I193" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="194" spans="1:9">
@@ -3774,7 +3759,7 @@
         <v>201</v>
       </c>
       <c r="B194" t="s">
-        <v>329</v>
+        <v>342</v>
       </c>
     </row>
     <row r="195" spans="1:9">
@@ -3782,13 +3767,7 @@
         <v>202</v>
       </c>
       <c r="B195" t="s">
-        <v>330</v>
-      </c>
-      <c r="C195" t="s">
-        <v>2</v>
-      </c>
-      <c r="H195" t="s">
-        <v>7</v>
+        <v>338</v>
       </c>
     </row>
     <row r="196" spans="1:9">
@@ -3798,13 +3777,22 @@
       <c r="B196" t="s">
         <v>342</v>
       </c>
+      <c r="F196" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="197" spans="1:9">
       <c r="A197" t="s">
         <v>204</v>
       </c>
       <c r="B197" t="s">
-        <v>338</v>
+        <v>333</v>
+      </c>
+      <c r="C197" t="s">
+        <v>2</v>
+      </c>
+      <c r="F197" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="198" spans="1:9">
@@ -3812,10 +3800,10 @@
         <v>205</v>
       </c>
       <c r="B198" t="s">
-        <v>342</v>
-      </c>
-      <c r="F198" t="s">
-        <v>5</v>
+        <v>329</v>
+      </c>
+      <c r="C198" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:9">
@@ -3823,13 +3811,7 @@
         <v>206</v>
       </c>
       <c r="B199" t="s">
-        <v>330</v>
-      </c>
-      <c r="C199" t="s">
-        <v>2</v>
-      </c>
-      <c r="F199" t="s">
-        <v>5</v>
+        <v>333</v>
       </c>
     </row>
     <row r="200" spans="1:9">
@@ -3837,10 +3819,7 @@
         <v>207</v>
       </c>
       <c r="B200" t="s">
-        <v>332</v>
-      </c>
-      <c r="C200" t="s">
-        <v>2</v>
+        <v>334</v>
       </c>
     </row>
     <row r="201" spans="1:9">
@@ -3848,7 +3827,16 @@
         <v>208</v>
       </c>
       <c r="B201" t="s">
-        <v>330</v>
+        <v>334</v>
+      </c>
+      <c r="D201" t="s">
+        <v>3</v>
+      </c>
+      <c r="F201" t="s">
+        <v>5</v>
+      </c>
+      <c r="H201" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="202" spans="1:9">
@@ -3856,7 +3844,7 @@
         <v>209</v>
       </c>
       <c r="B202" t="s">
-        <v>328</v>
+        <v>342</v>
       </c>
     </row>
     <row r="203" spans="1:9">
@@ -3864,16 +3852,7 @@
         <v>210</v>
       </c>
       <c r="B203" t="s">
-        <v>328</v>
-      </c>
-      <c r="D203" t="s">
-        <v>3</v>
-      </c>
-      <c r="F203" t="s">
-        <v>5</v>
-      </c>
-      <c r="H203" t="s">
-        <v>7</v>
+        <v>342</v>
       </c>
     </row>
     <row r="204" spans="1:9">
@@ -3881,43 +3860,49 @@
         <v>211</v>
       </c>
       <c r="B204" t="s">
-        <v>342</v>
+        <v>333</v>
+      </c>
+      <c r="C204" t="s">
+        <v>2</v>
+      </c>
+      <c r="E204" t="s">
+        <v>4</v>
+      </c>
+      <c r="F204" t="s">
+        <v>5</v>
+      </c>
+      <c r="I204" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="205" spans="1:9">
       <c r="A205" t="s">
-        <v>212</v>
+        <v>160</v>
       </c>
       <c r="B205" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="206" spans="1:9">
       <c r="A206" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B206" t="s">
-        <v>330</v>
-      </c>
-      <c r="C206" t="s">
-        <v>2</v>
-      </c>
-      <c r="E206" t="s">
-        <v>4</v>
-      </c>
-      <c r="F206" t="s">
-        <v>5</v>
-      </c>
-      <c r="I206" t="s">
-        <v>8</v>
+        <v>336</v>
       </c>
     </row>
     <row r="207" spans="1:9">
       <c r="A207" t="s">
-        <v>162</v>
+        <v>213</v>
       </c>
       <c r="B207" t="s">
-        <v>338</v>
+        <v>342</v>
+      </c>
+      <c r="C207" t="s">
+        <v>2</v>
+      </c>
+      <c r="F207" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="208" spans="1:9">
@@ -3925,7 +3910,7 @@
         <v>214</v>
       </c>
       <c r="B208" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -3933,13 +3918,7 @@
         <v>215</v>
       </c>
       <c r="B209" t="s">
-        <v>342</v>
-      </c>
-      <c r="C209" t="s">
-        <v>2</v>
-      </c>
-      <c r="F209" t="s">
-        <v>5</v>
+        <v>333</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -3947,7 +3926,13 @@
         <v>216</v>
       </c>
       <c r="B210" t="s">
-        <v>332</v>
+        <v>334</v>
+      </c>
+      <c r="C210" t="s">
+        <v>2</v>
+      </c>
+      <c r="E210" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -3955,7 +3940,16 @@
         <v>217</v>
       </c>
       <c r="B211" t="s">
-        <v>330</v>
+        <v>333</v>
+      </c>
+      <c r="C211" t="s">
+        <v>2</v>
+      </c>
+      <c r="F211" t="s">
+        <v>5</v>
+      </c>
+      <c r="H211" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -3963,16 +3957,7 @@
         <v>218</v>
       </c>
       <c r="B212" t="s">
-        <v>330</v>
-      </c>
-      <c r="C212" t="s">
-        <v>2</v>
-      </c>
-      <c r="F212" t="s">
-        <v>5</v>
-      </c>
-      <c r="H212" t="s">
-        <v>7</v>
+        <v>329</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -3980,7 +3965,10 @@
         <v>219</v>
       </c>
       <c r="B213" t="s">
-        <v>332</v>
+        <v>328</v>
+      </c>
+      <c r="C213" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -3988,10 +3976,16 @@
         <v>220</v>
       </c>
       <c r="B214" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C214" t="s">
         <v>2</v>
+      </c>
+      <c r="E214" t="s">
+        <v>4</v>
+      </c>
+      <c r="H214" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -3999,7 +3993,7 @@
         <v>221</v>
       </c>
       <c r="B215" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C215" t="s">
         <v>2</v>
@@ -4007,36 +4001,30 @@
       <c r="E215" t="s">
         <v>4</v>
       </c>
+      <c r="F215" t="s">
+        <v>5</v>
+      </c>
       <c r="H215" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="216" spans="1:8">
       <c r="A216" t="s">
-        <v>222</v>
+        <v>89</v>
       </c>
       <c r="B216" t="s">
-        <v>331</v>
-      </c>
-      <c r="C216" t="s">
-        <v>2</v>
-      </c>
-      <c r="E216" t="s">
-        <v>4</v>
-      </c>
-      <c r="F216" t="s">
-        <v>5</v>
-      </c>
-      <c r="H216" t="s">
-        <v>7</v>
+        <v>329</v>
       </c>
     </row>
     <row r="217" spans="1:8">
       <c r="A217" t="s">
-        <v>92</v>
+        <v>222</v>
       </c>
       <c r="B217" t="s">
-        <v>332</v>
+        <v>330</v>
+      </c>
+      <c r="C217" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -4044,10 +4032,7 @@
         <v>223</v>
       </c>
       <c r="B218" t="s">
-        <v>329</v>
-      </c>
-      <c r="C218" t="s">
-        <v>2</v>
+        <v>336</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -4055,7 +4040,19 @@
         <v>224</v>
       </c>
       <c r="B219" t="s">
-        <v>336</v>
+        <v>333</v>
+      </c>
+      <c r="C219" t="s">
+        <v>2</v>
+      </c>
+      <c r="E219" t="s">
+        <v>4</v>
+      </c>
+      <c r="F219" t="s">
+        <v>5</v>
+      </c>
+      <c r="H219" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -4063,19 +4060,7 @@
         <v>225</v>
       </c>
       <c r="B220" t="s">
-        <v>330</v>
-      </c>
-      <c r="C220" t="s">
-        <v>2</v>
-      </c>
-      <c r="E220" t="s">
-        <v>4</v>
-      </c>
-      <c r="F220" t="s">
-        <v>5</v>
-      </c>
-      <c r="H220" t="s">
-        <v>7</v>
+        <v>328</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -4083,7 +4068,7 @@
         <v>226</v>
       </c>
       <c r="B221" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -4091,7 +4076,13 @@
         <v>227</v>
       </c>
       <c r="B222" t="s">
-        <v>331</v>
+        <v>337</v>
+      </c>
+      <c r="C222" t="s">
+        <v>2</v>
+      </c>
+      <c r="H222" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -4099,7 +4090,7 @@
         <v>228</v>
       </c>
       <c r="B223" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="C223" t="s">
         <v>2</v>
@@ -4113,13 +4104,13 @@
         <v>229</v>
       </c>
       <c r="B224" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C224" t="s">
         <v>2</v>
       </c>
-      <c r="H224" t="s">
-        <v>7</v>
+      <c r="F224" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -4127,13 +4118,7 @@
         <v>230</v>
       </c>
       <c r="B225" t="s">
-        <v>332</v>
-      </c>
-      <c r="C225" t="s">
-        <v>2</v>
-      </c>
-      <c r="F225" t="s">
-        <v>5</v>
+        <v>336</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -4141,7 +4126,10 @@
         <v>231</v>
       </c>
       <c r="B226" t="s">
-        <v>336</v>
+        <v>334</v>
+      </c>
+      <c r="D226" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -4149,10 +4137,10 @@
         <v>232</v>
       </c>
       <c r="B227" t="s">
-        <v>328</v>
-      </c>
-      <c r="D227" t="s">
-        <v>3</v>
+        <v>333</v>
+      </c>
+      <c r="C227" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -4160,10 +4148,13 @@
         <v>233</v>
       </c>
       <c r="B228" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="C228" t="s">
         <v>2</v>
+      </c>
+      <c r="H228" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -4171,13 +4162,13 @@
         <v>234</v>
       </c>
       <c r="B229" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="C229" t="s">
         <v>2</v>
       </c>
-      <c r="H229" t="s">
-        <v>7</v>
+      <c r="F229" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -4185,13 +4176,7 @@
         <v>235</v>
       </c>
       <c r="B230" t="s">
-        <v>345</v>
-      </c>
-      <c r="C230" t="s">
-        <v>2</v>
-      </c>
-      <c r="F230" t="s">
-        <v>5</v>
+        <v>330</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -4199,7 +4184,7 @@
         <v>236</v>
       </c>
       <c r="B231" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -4207,7 +4192,7 @@
         <v>237</v>
       </c>
       <c r="B232" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -4215,7 +4200,7 @@
         <v>238</v>
       </c>
       <c r="B233" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -4223,32 +4208,32 @@
         <v>239</v>
       </c>
       <c r="B234" t="s">
-        <v>332</v>
+        <v>329</v>
+      </c>
+      <c r="C234" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:8">
       <c r="A235" t="s">
-        <v>240</v>
+        <v>89</v>
       </c>
       <c r="B235" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C235" t="s">
         <v>2</v>
+      </c>
+      <c r="F235" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="236" spans="1:8">
       <c r="A236" t="s">
-        <v>92</v>
+        <v>240</v>
       </c>
       <c r="B236" t="s">
-        <v>332</v>
-      </c>
-      <c r="C236" t="s">
-        <v>2</v>
-      </c>
-      <c r="F236" t="s">
-        <v>5</v>
+        <v>331</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -4256,7 +4241,16 @@
         <v>241</v>
       </c>
       <c r="B237" t="s">
-        <v>333</v>
+        <v>337</v>
+      </c>
+      <c r="C237" t="s">
+        <v>2</v>
+      </c>
+      <c r="E237" t="s">
+        <v>4</v>
+      </c>
+      <c r="H237" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -4264,16 +4258,10 @@
         <v>242</v>
       </c>
       <c r="B238" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="C238" t="s">
         <v>2</v>
-      </c>
-      <c r="E238" t="s">
-        <v>4</v>
-      </c>
-      <c r="H238" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -4281,10 +4269,7 @@
         <v>243</v>
       </c>
       <c r="B239" t="s">
-        <v>333</v>
-      </c>
-      <c r="C239" t="s">
-        <v>2</v>
+        <v>334</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -4292,7 +4277,13 @@
         <v>244</v>
       </c>
       <c r="B240" t="s">
-        <v>328</v>
+        <v>337</v>
+      </c>
+      <c r="C240" t="s">
+        <v>2</v>
+      </c>
+      <c r="E240" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -4300,13 +4291,7 @@
         <v>245</v>
       </c>
       <c r="B241" t="s">
-        <v>337</v>
-      </c>
-      <c r="C241" t="s">
-        <v>2</v>
-      </c>
-      <c r="E241" t="s">
-        <v>4</v>
+        <v>333</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -4314,7 +4299,7 @@
         <v>246</v>
       </c>
       <c r="B242" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -4322,7 +4307,10 @@
         <v>247</v>
       </c>
       <c r="B243" t="s">
-        <v>331</v>
+        <v>337</v>
+      </c>
+      <c r="C243" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -4330,10 +4318,13 @@
         <v>248</v>
       </c>
       <c r="B244" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="C244" t="s">
         <v>2</v>
+      </c>
+      <c r="H244" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -4341,13 +4332,13 @@
         <v>249</v>
       </c>
       <c r="B245" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="C245" t="s">
         <v>2</v>
       </c>
-      <c r="H245" t="s">
-        <v>7</v>
+      <c r="F245" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -4355,13 +4346,7 @@
         <v>250</v>
       </c>
       <c r="B246" t="s">
-        <v>328</v>
-      </c>
-      <c r="C246" t="s">
-        <v>2</v>
-      </c>
-      <c r="F246" t="s">
-        <v>5</v>
+        <v>333</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -4369,7 +4354,10 @@
         <v>251</v>
       </c>
       <c r="B247" t="s">
-        <v>330</v>
+        <v>328</v>
+      </c>
+      <c r="H247" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -4377,10 +4365,10 @@
         <v>252</v>
       </c>
       <c r="B248" t="s">
-        <v>331</v>
-      </c>
-      <c r="H248" t="s">
-        <v>7</v>
+        <v>333</v>
+      </c>
+      <c r="C248" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -4388,10 +4376,7 @@
         <v>253</v>
       </c>
       <c r="B249" t="s">
-        <v>330</v>
-      </c>
-      <c r="C249" t="s">
-        <v>2</v>
+        <v>333</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -4399,7 +4384,7 @@
         <v>254</v>
       </c>
       <c r="B250" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -4407,7 +4392,7 @@
         <v>255</v>
       </c>
       <c r="B251" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -4415,7 +4400,7 @@
         <v>256</v>
       </c>
       <c r="B252" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -4425,6 +4410,9 @@
       <c r="B253" t="s">
         <v>338</v>
       </c>
+      <c r="H253" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="254" spans="1:8">
       <c r="A254" t="s">
@@ -4442,7 +4430,16 @@
         <v>259</v>
       </c>
       <c r="B255" t="s">
-        <v>338</v>
+        <v>333</v>
+      </c>
+      <c r="C255" t="s">
+        <v>2</v>
+      </c>
+      <c r="E255" t="s">
+        <v>4</v>
+      </c>
+      <c r="F255" t="s">
+        <v>5</v>
       </c>
       <c r="H255" t="s">
         <v>7</v>
@@ -4453,19 +4450,7 @@
         <v>260</v>
       </c>
       <c r="B256" t="s">
-        <v>330</v>
-      </c>
-      <c r="C256" t="s">
-        <v>2</v>
-      </c>
-      <c r="E256" t="s">
-        <v>4</v>
-      </c>
-      <c r="F256" t="s">
-        <v>5</v>
-      </c>
-      <c r="H256" t="s">
-        <v>7</v>
+        <v>336</v>
       </c>
     </row>
     <row r="257" spans="1:9">
@@ -4473,7 +4458,7 @@
         <v>261</v>
       </c>
       <c r="B257" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="258" spans="1:9">
@@ -4481,7 +4466,7 @@
         <v>262</v>
       </c>
       <c r="B258" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="259" spans="1:9">
@@ -4489,7 +4474,13 @@
         <v>263</v>
       </c>
       <c r="B259" t="s">
-        <v>332</v>
+        <v>333</v>
+      </c>
+      <c r="C259" t="s">
+        <v>2</v>
+      </c>
+      <c r="H259" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="260" spans="1:9">
@@ -4497,13 +4488,10 @@
         <v>264</v>
       </c>
       <c r="B260" t="s">
-        <v>330</v>
+        <v>342</v>
       </c>
       <c r="C260" t="s">
         <v>2</v>
-      </c>
-      <c r="H260" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="261" spans="1:9">
@@ -4511,10 +4499,7 @@
         <v>265</v>
       </c>
       <c r="B261" t="s">
-        <v>342</v>
-      </c>
-      <c r="C261" t="s">
-        <v>2</v>
+        <v>338</v>
       </c>
     </row>
     <row r="262" spans="1:9">
@@ -4522,26 +4507,26 @@
         <v>266</v>
       </c>
       <c r="B262" t="s">
-        <v>338</v>
+        <v>334</v>
+      </c>
+      <c r="C262" t="s">
+        <v>2</v>
+      </c>
+      <c r="H262" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="263" spans="1:9">
       <c r="A263" t="s">
-        <v>267</v>
+        <v>154</v>
       </c>
       <c r="B263" t="s">
-        <v>328</v>
-      </c>
-      <c r="C263" t="s">
-        <v>2</v>
-      </c>
-      <c r="H263" t="s">
-        <v>7</v>
+        <v>336</v>
       </c>
     </row>
     <row r="264" spans="1:9">
       <c r="A264" t="s">
-        <v>156</v>
+        <v>267</v>
       </c>
       <c r="B264" t="s">
         <v>336</v>
@@ -4552,7 +4537,10 @@
         <v>268</v>
       </c>
       <c r="B265" t="s">
-        <v>336</v>
+        <v>333</v>
+      </c>
+      <c r="C265" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="266" spans="1:9">
@@ -4560,10 +4548,7 @@
         <v>269</v>
       </c>
       <c r="B266" t="s">
-        <v>330</v>
-      </c>
-      <c r="C266" t="s">
-        <v>2</v>
+        <v>333</v>
       </c>
     </row>
     <row r="267" spans="1:9">
@@ -4571,7 +4556,7 @@
         <v>270</v>
       </c>
       <c r="B267" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
     </row>
     <row r="268" spans="1:9">
@@ -4579,7 +4564,16 @@
         <v>271</v>
       </c>
       <c r="B268" t="s">
-        <v>330</v>
+        <v>331</v>
+      </c>
+      <c r="C268" t="s">
+        <v>2</v>
+      </c>
+      <c r="H268" t="s">
+        <v>7</v>
+      </c>
+      <c r="I268" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="269" spans="1:9">
@@ -4587,16 +4581,13 @@
         <v>272</v>
       </c>
       <c r="B269" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="C269" t="s">
         <v>2</v>
       </c>
-      <c r="H269" t="s">
-        <v>7</v>
-      </c>
-      <c r="I269" t="s">
-        <v>8</v>
+      <c r="F269" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="270" spans="1:9">
@@ -4604,13 +4595,10 @@
         <v>273</v>
       </c>
       <c r="B270" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="C270" t="s">
         <v>2</v>
-      </c>
-      <c r="F270" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="271" spans="1:9">
@@ -4618,10 +4606,10 @@
         <v>274</v>
       </c>
       <c r="B271" t="s">
-        <v>330</v>
-      </c>
-      <c r="C271" t="s">
-        <v>2</v>
+        <v>333</v>
+      </c>
+      <c r="F271" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="272" spans="1:9">
@@ -4629,7 +4617,7 @@
         <v>275</v>
       </c>
       <c r="B272" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="F272" t="s">
         <v>5</v>
@@ -4640,10 +4628,7 @@
         <v>276</v>
       </c>
       <c r="B273" t="s">
-        <v>338</v>
-      </c>
-      <c r="F273" t="s">
-        <v>5</v>
+        <v>342</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -4659,7 +4644,13 @@
         <v>278</v>
       </c>
       <c r="B275" t="s">
-        <v>342</v>
+        <v>337</v>
+      </c>
+      <c r="C275" t="s">
+        <v>2</v>
+      </c>
+      <c r="H275" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -4667,10 +4658,7 @@
         <v>279</v>
       </c>
       <c r="B276" t="s">
-        <v>337</v>
-      </c>
-      <c r="C276" t="s">
-        <v>2</v>
+        <v>343</v>
       </c>
       <c r="H276" t="s">
         <v>7</v>
@@ -4681,10 +4669,10 @@
         <v>280</v>
       </c>
       <c r="B277" t="s">
-        <v>343</v>
-      </c>
-      <c r="H277" t="s">
-        <v>7</v>
+        <v>333</v>
+      </c>
+      <c r="C277" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -4692,7 +4680,7 @@
         <v>281</v>
       </c>
       <c r="B278" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="C278" t="s">
         <v>2</v>
@@ -4703,10 +4691,7 @@
         <v>282</v>
       </c>
       <c r="B279" t="s">
-        <v>330</v>
-      </c>
-      <c r="C279" t="s">
-        <v>2</v>
+        <v>333</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -4714,7 +4699,10 @@
         <v>283</v>
       </c>
       <c r="B280" t="s">
-        <v>330</v>
+        <v>334</v>
+      </c>
+      <c r="E280" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -4722,10 +4710,10 @@
         <v>284</v>
       </c>
       <c r="B281" t="s">
-        <v>328</v>
-      </c>
-      <c r="E281" t="s">
-        <v>4</v>
+        <v>338</v>
+      </c>
+      <c r="C281" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -4735,16 +4723,13 @@
       <c r="B282" t="s">
         <v>338</v>
       </c>
-      <c r="C282" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="283" spans="1:8">
       <c r="A283" t="s">
         <v>286</v>
       </c>
       <c r="B283" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -4752,7 +4737,13 @@
         <v>287</v>
       </c>
       <c r="B284" t="s">
-        <v>330</v>
+        <v>331</v>
+      </c>
+      <c r="D284" t="s">
+        <v>3</v>
+      </c>
+      <c r="H284" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -4760,13 +4751,10 @@
         <v>288</v>
       </c>
       <c r="B285" t="s">
-        <v>333</v>
-      </c>
-      <c r="D285" t="s">
-        <v>3</v>
-      </c>
-      <c r="H285" t="s">
-        <v>7</v>
+        <v>334</v>
+      </c>
+      <c r="C285" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -4776,16 +4764,13 @@
       <c r="B286" t="s">
         <v>328</v>
       </c>
-      <c r="C286" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="287" spans="1:8">
       <c r="A287" t="s">
         <v>290</v>
       </c>
       <c r="B287" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -4793,7 +4778,7 @@
         <v>291</v>
       </c>
       <c r="B288" t="s">
-        <v>330</v>
+        <v>344</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -4809,7 +4794,7 @@
         <v>293</v>
       </c>
       <c r="B290" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -4817,7 +4802,13 @@
         <v>294</v>
       </c>
       <c r="B291" t="s">
-        <v>334</v>
+        <v>344</v>
+      </c>
+      <c r="C291" t="s">
+        <v>2</v>
+      </c>
+      <c r="F291" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -4825,13 +4816,16 @@
         <v>295</v>
       </c>
       <c r="B292" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="C292" t="s">
         <v>2</v>
       </c>
       <c r="F292" t="s">
         <v>5</v>
+      </c>
+      <c r="H292" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -4839,7 +4833,7 @@
         <v>296</v>
       </c>
       <c r="B293" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="C293" t="s">
         <v>2</v>
@@ -4856,10 +4850,10 @@
         <v>297</v>
       </c>
       <c r="B294" t="s">
-        <v>343</v>
-      </c>
-      <c r="C294" t="s">
-        <v>2</v>
+        <v>327</v>
+      </c>
+      <c r="E294" t="s">
+        <v>4</v>
       </c>
       <c r="F294" t="s">
         <v>5</v>
@@ -4873,16 +4867,7 @@
         <v>298</v>
       </c>
       <c r="B295" t="s">
-        <v>327</v>
-      </c>
-      <c r="E295" t="s">
-        <v>4</v>
-      </c>
-      <c r="F295" t="s">
-        <v>5</v>
-      </c>
-      <c r="H295" t="s">
-        <v>7</v>
+        <v>333</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -4890,7 +4875,7 @@
         <v>299</v>
       </c>
       <c r="B296" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -4898,7 +4883,10 @@
         <v>300</v>
       </c>
       <c r="B297" t="s">
-        <v>332</v>
+        <v>333</v>
+      </c>
+      <c r="C297" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -4906,10 +4894,7 @@
         <v>301</v>
       </c>
       <c r="B298" t="s">
-        <v>330</v>
-      </c>
-      <c r="C298" t="s">
-        <v>2</v>
+        <v>342</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -4917,7 +4902,10 @@
         <v>302</v>
       </c>
       <c r="B299" t="s">
-        <v>342</v>
+        <v>334</v>
+      </c>
+      <c r="C299" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -4925,10 +4913,10 @@
         <v>303</v>
       </c>
       <c r="B300" t="s">
-        <v>328</v>
-      </c>
-      <c r="C300" t="s">
-        <v>2</v>
+        <v>338</v>
+      </c>
+      <c r="H300" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -4936,10 +4924,7 @@
         <v>304</v>
       </c>
       <c r="B301" t="s">
-        <v>338</v>
-      </c>
-      <c r="H301" t="s">
-        <v>7</v>
+        <v>328</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -4955,7 +4940,7 @@
         <v>306</v>
       </c>
       <c r="B303" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -4963,45 +4948,54 @@
         <v>307</v>
       </c>
       <c r="B304" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="305" spans="1:8">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="305" spans="1:9">
       <c r="A305" t="s">
         <v>308</v>
       </c>
       <c r="B305" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="306" spans="1:8">
+        <v>329</v>
+      </c>
+      <c r="C305" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="306" spans="1:9">
       <c r="A306" t="s">
         <v>309</v>
       </c>
       <c r="B306" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C306" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="307" spans="1:8">
+    <row r="307" spans="1:9">
       <c r="A307" t="s">
         <v>310</v>
       </c>
       <c r="B307" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C307" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="308" spans="1:8">
+      <c r="F307" t="s">
+        <v>5</v>
+      </c>
+      <c r="H307" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="308" spans="1:9">
       <c r="A308" t="s">
         <v>311</v>
       </c>
       <c r="B308" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C308" t="s">
         <v>2</v>
@@ -5013,38 +5007,32 @@
         <v>7</v>
       </c>
     </row>
-    <row r="309" spans="1:8">
+    <row r="309" spans="1:9">
       <c r="A309" t="s">
         <v>312</v>
       </c>
       <c r="B309" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C309" t="s">
         <v>2</v>
       </c>
-      <c r="F309" t="s">
-        <v>5</v>
-      </c>
-      <c r="H309" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="310" spans="1:8">
+      <c r="E309" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="310" spans="1:9">
       <c r="A310" t="s">
         <v>313</v>
       </c>
       <c r="B310" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="C310" t="s">
         <v>2</v>
       </c>
-      <c r="E310" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="311" spans="1:8">
+    </row>
+    <row r="311" spans="1:9">
       <c r="A311" t="s">
         <v>314</v>
       </c>
@@ -5055,70 +5043,82 @@
         <v>2</v>
       </c>
     </row>
-    <row r="312" spans="1:8">
+    <row r="312" spans="1:9">
       <c r="A312" t="s">
         <v>315</v>
       </c>
       <c r="B312" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="C312" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="313" spans="1:8">
+    <row r="313" spans="1:9">
       <c r="A313" t="s">
         <v>316</v>
       </c>
       <c r="B313" t="s">
-        <v>342</v>
-      </c>
-      <c r="C313" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="314" spans="1:8">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="314" spans="1:9">
       <c r="A314" t="s">
         <v>317</v>
       </c>
       <c r="B314" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="315" spans="1:8">
+        <v>329</v>
+      </c>
+      <c r="C314" t="s">
+        <v>2</v>
+      </c>
+      <c r="F314" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="315" spans="1:9">
       <c r="A315" t="s">
         <v>318</v>
       </c>
       <c r="B315" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C315" t="s">
         <v>2</v>
       </c>
+      <c r="E315" t="s">
+        <v>4</v>
+      </c>
       <c r="F315" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="316" spans="1:8">
+      <c r="H315" t="s">
+        <v>7</v>
+      </c>
+      <c r="I315" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="316" spans="1:9">
       <c r="A316" t="s">
         <v>319</v>
       </c>
       <c r="B316" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C316" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="317" spans="1:8">
+    <row r="317" spans="1:9">
       <c r="A317" t="s">
         <v>320</v>
       </c>
       <c r="B317" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="318" spans="1:8">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="318" spans="1:9">
       <c r="A318" t="s">
         <v>321</v>
       </c>
@@ -5129,23 +5129,23 @@
         <v>2</v>
       </c>
     </row>
-    <row r="319" spans="1:8">
+    <row r="319" spans="1:9">
       <c r="A319" t="s">
         <v>322</v>
       </c>
       <c r="B319" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C319" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="320" spans="1:8">
+    <row r="320" spans="1:9">
       <c r="A320" t="s">
         <v>323</v>
       </c>
       <c r="B320" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="321" spans="1:3">
@@ -5153,7 +5153,7 @@
         <v>324</v>
       </c>
       <c r="B321" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="322" spans="1:3">
@@ -5161,7 +5161,7 @@
         <v>325</v>
       </c>
       <c r="B322" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C322" t="s">
         <v>2</v>
@@ -5172,7 +5172,7 @@
         <v>326</v>
       </c>
       <c r="B323" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
     </row>
   </sheetData>
